--- a/Assignment 1_Bùi Thị Hòa_ Test case.xlsx
+++ b/Assignment 1_Bùi Thị Hòa_ Test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Rookie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA711FB-0D18-4658-9E81-E384E82055CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF776157-3A01-43B1-8200-7887C38682EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="530">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2782,9 +2782,6 @@
     <t>Verify that the first photo in the photolist is defaulted to display in the big photo frame</t>
   </si>
   <si>
-    <t>Verify that the original price has a dash.</t>
-  </si>
-  <si>
     <t>Verify that the original price has 1 comma in case: price&gt;1000 and price&lt;999.999.</t>
   </si>
   <si>
@@ -2796,9 +2793,6 @@
     <t>1. Open the app
 2. Go to product function.
 3. View original price of the product.</t>
-  </si>
-  <si>
-    <t>The original price has a dash.</t>
   </si>
   <si>
     <t>Verify that the original price has 2 commas in case: price= 1.000.000.</t>
@@ -3139,6 +3133,18 @@
   </si>
   <si>
     <t>The button not working</t>
+  </si>
+  <si>
+    <t>Verify that the original price has a strikethrough.</t>
+  </si>
+  <si>
+    <t>The original price has a strikethrough.</t>
+  </si>
+  <si>
+    <t>The discounted price has 0 comma.</t>
+  </si>
+  <si>
+    <t>The original price has 0 comma.</t>
   </si>
 </sst>
 </file>
@@ -4767,198 +4773,6 @@
     <xf numFmtId="0" fontId="52" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5055,6 +4869,198 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5816,37 +5822,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="250"/>
+      <c r="C5" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="211" t="s">
+      <c r="B6" s="253"/>
+      <c r="C6" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5858,14 +5864,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5948,14 +5954,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="211" t="s">
+      <c r="A13" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6078,36 +6084,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="222" t="s">
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="222"/>
+      <c r="K2" s="257"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="223" t="s">
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -6127,65 +6133,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="229" t="s">
+      <c r="A9" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
+      <c r="A10" s="264"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="264"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="230"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="230"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6207,65 +6213,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="226" t="s">
+      <c r="B14" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="228"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="262"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="262"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="228"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="263"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="226" t="s">
+      <c r="B16" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="228"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="262"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="263"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="228"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="263"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -6276,40 +6282,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="228"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="262"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="263"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="228"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="263"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="226" t="s">
+      <c r="B22" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="228"/>
+      <c r="C22" s="262"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="263"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -6368,11 +6374,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="219" t="s">
+      <c r="B29" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="256"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6449,14 +6455,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6642,12 +6648,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="269" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6808,18 +6814,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="267" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="267"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="233" t="s">
+      <c r="A17" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="233"/>
+      <c r="B17" s="268"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6848,16 +6854,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X393"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="299" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="235" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="199" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="285" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="307" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="221" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="243" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="46" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" style="46" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="46" customWidth="1"/>
@@ -6865,10 +6871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="235"/>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="A1" s="275"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6877,13 +6883,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="271"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6891,11 +6897,11 @@
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="291"/>
+      <c r="A3" s="227"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="271"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6903,14 +6909,14 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="273" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6921,12 +6927,12 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6937,12 +6943,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="38" customFormat="1">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6950,14 +6956,14 @@
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:24" s="38" customFormat="1">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="273" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6966,14 +6972,14 @@
       <c r="X7" s="42"/>
     </row>
     <row r="8" spans="1:24" s="43" customFormat="1">
-      <c r="A8" s="292" t="s">
+      <c r="A8" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="239">
+      <c r="B8" s="277">
         <v>44876</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6984,24 +6990,24 @@
         <f>F17</f>
         <v>Internal Build 03112011</v>
       </c>
-      <c r="C9" s="277" t="str">
+      <c r="C9" s="213" t="str">
         <f>G17</f>
         <v>Internal build 14112011</v>
       </c>
-      <c r="D9" s="300" t="str">
+      <c r="D9" s="236" t="str">
         <f>H17</f>
         <v>External build 16112011</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="43" customFormat="1">
-      <c r="A10" s="293" t="s">
+      <c r="A10" s="229" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="278">
+      <c r="C10" s="214">
         <f>SUM(C11:C14)</f>
         <v>0</v>
       </c>
@@ -7011,14 +7017,14 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
-      <c r="A11" s="293" t="s">
+      <c r="A11" s="229" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="75">
         <f>COUNTIF($F$18:$F$49395,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="279">
+      <c r="C11" s="215">
         <f>COUNTIF($G$18:$G$49395,"*Passed")</f>
         <v>0</v>
       </c>
@@ -7028,14 +7034,14 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
-      <c r="A12" s="293" t="s">
+      <c r="A12" s="229" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="75">
         <f>COUNTIF($F$18:$F$49115,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="C12" s="279">
+      <c r="C12" s="215">
         <f>COUNTIF($G$18:$G$49115,"*Failed*")</f>
         <v>0</v>
       </c>
@@ -7045,14 +7051,14 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="43" customFormat="1">
-      <c r="A13" s="293" t="s">
+      <c r="A13" s="229" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="75">
         <f>COUNTIF($F$18:$F$49115,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="279">
+      <c r="C13" s="215">
         <f>COUNTIF($G$18:$G$49115,"*Not Run*")</f>
         <v>0</v>
       </c>
@@ -7067,14 +7073,14 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:24" s="43" customFormat="1">
-      <c r="A14" s="293" t="s">
+      <c r="A14" s="229" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="75">
         <f>COUNTIF($F$18:$F$49115,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="279">
+      <c r="C14" s="215">
         <f>COUNTIF($G$18:$G$49115,"*NA*")</f>
         <v>0</v>
       </c>
@@ -7089,14 +7095,14 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:24" s="43" customFormat="1" ht="25.5">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="229" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="75">
         <f>COUNTIF($F$18:$F$49115,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="279">
+      <c r="C15" s="215">
         <f>COUNTIF($G$18:$G$49115,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
@@ -7111,29 +7117,29 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:24" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="294"/>
+      <c r="A16" s="230"/>
       <c r="B16" s="195"/>
-      <c r="C16" s="280"/>
-      <c r="D16" s="301"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="240" t="s">
+      <c r="F16" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="270"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="231" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="281" t="s">
+      <c r="C17" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="302" t="s">
+      <c r="D17" s="238" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="143" t="s">
@@ -7153,12 +7159,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="296" t="s">
+      <c r="A18" s="232" t="s">
         <v>440</v>
       </c>
       <c r="B18" s="196"/>
       <c r="C18" s="181"/>
-      <c r="D18" s="303"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="182"/>
       <c r="F18" s="183"/>
       <c r="G18" s="183"/>
@@ -7166,12 +7172,12 @@
       <c r="I18" s="182"/>
     </row>
     <row r="19" spans="1:9" s="185" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="233" t="s">
         <v>420</v>
       </c>
       <c r="B19" s="197"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="304"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="186"/>
       <c r="F19" s="187"/>
       <c r="G19" s="187"/>
@@ -7186,10 +7192,10 @@
         <v>423</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
@@ -7199,17 +7205,17 @@
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="38.25">
       <c r="A21" s="62">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <f t="shared" ref="A21:A26" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B21" s="203" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -7219,17 +7225,17 @@
     </row>
     <row r="22" spans="1:9" s="45" customFormat="1" ht="76.5">
       <c r="A22" s="62">
-        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" s="203" t="s">
         <v>422</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="52"/>
@@ -7239,17 +7245,17 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1" ht="76.5">
       <c r="A23" s="62">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B23" s="204" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="52"/>
@@ -7259,17 +7265,17 @@
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A24" s="62">
-        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B24" s="205" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -7279,17 +7285,17 @@
     </row>
     <row r="25" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A25" s="62">
-        <f ca="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B25" s="203" t="s">
         <v>425</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -7299,17 +7305,17 @@
     </row>
     <row r="26" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A26" s="62">
-        <f ca="1">IF(OFFSET(A26,-1,0) ="",OFFSET(A26,-2,0)+1,OFFSET(A26,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B26" s="203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -7319,17 +7325,17 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="89.25">
       <c r="A27" s="62">
-        <f t="shared" ref="A27:A62" ca="1" si="0">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
+        <f t="shared" ref="A27:A62" ca="1" si="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
         <v>8</v>
       </c>
-      <c r="B27" s="276" t="s">
-        <v>462</v>
+      <c r="B27" s="212" t="s">
+        <v>460</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -7339,17 +7345,17 @@
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A28" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="B28" s="203" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -7359,17 +7365,17 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A29" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="B29" s="203" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="52"/>
@@ -7383,7 +7389,7 @@
         <v>421</v>
       </c>
       <c r="C30" s="188"/>
-      <c r="D30" s="305"/>
+      <c r="D30" s="241"/>
       <c r="E30" s="189"/>
       <c r="F30" s="190"/>
       <c r="G30" s="190"/>
@@ -7392,17 +7398,17 @@
     </row>
     <row r="31" spans="1:9" s="193" customFormat="1" ht="38.25">
       <c r="A31" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="B31" s="203" t="s">
         <v>423</v>
       </c>
       <c r="C31" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" s="59" t="s">
         <v>483</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>485</v>
       </c>
       <c r="E31" s="191"/>
       <c r="F31" s="192"/>
@@ -7412,17 +7418,17 @@
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A32" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B32" s="203" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="286" t="s">
-        <v>488</v>
+      <c r="C32" s="222" t="s">
+        <v>486</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -7432,17 +7438,17 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="66" customHeight="1">
       <c r="A33" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="B33" s="204" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="286" t="s">
-        <v>482</v>
+      <c r="C33" s="222" t="s">
+        <v>480</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -7452,17 +7458,17 @@
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="89.25">
       <c r="A34" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="B34" s="205" t="s">
         <v>452</v>
       </c>
-      <c r="C34" s="286" t="s">
-        <v>481</v>
+      <c r="C34" s="222" t="s">
+        <v>479</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
@@ -7472,17 +7478,17 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A35" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="B35" s="203" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="286" t="s">
-        <v>480</v>
+      <c r="C35" s="222" t="s">
+        <v>478</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="52"/>
@@ -7492,17 +7498,17 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A36" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="B36" s="205" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="286" t="s">
-        <v>479</v>
+      <c r="C36" s="222" t="s">
+        <v>477</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="52"/>
@@ -7511,18 +7517,18 @@
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="169" customFormat="1" ht="89.25">
-      <c r="A37" s="273">
-        <f t="shared" ca="1" si="0"/>
+      <c r="A37" s="209">
+        <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="B37" s="275" t="s">
+      <c r="B37" s="211" t="s">
         <v>430</v>
       </c>
-      <c r="C37" s="286" t="s">
-        <v>478</v>
+      <c r="C37" s="222" t="s">
+        <v>476</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E37" s="167"/>
       <c r="F37" s="168"/>
@@ -7531,18 +7537,18 @@
       <c r="I37" s="167"/>
     </row>
     <row r="38" spans="1:9" s="169" customFormat="1" ht="76.5">
-      <c r="A38" s="273">
-        <f t="shared" ca="1" si="0"/>
+      <c r="A38" s="209">
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="B38" s="275" t="s">
+      <c r="B38" s="211" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="286" t="s">
-        <v>476</v>
+      <c r="C38" s="222" t="s">
+        <v>474</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E38" s="167"/>
       <c r="F38" s="168"/>
@@ -7552,17 +7558,17 @@
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A39" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="B39" s="274" t="s">
+      <c r="B39" s="210" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="286" t="s">
-        <v>477</v>
+      <c r="C39" s="222" t="s">
+        <v>475</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -7575,7 +7581,7 @@
       <c r="B40" s="202" t="s">
         <v>432</v>
       </c>
-      <c r="C40" s="282"/>
+      <c r="C40" s="218"/>
       <c r="D40" s="178"/>
       <c r="E40" s="178"/>
       <c r="F40" s="177"/>
@@ -7585,17 +7591,17 @@
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A41" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="B41" s="170" t="s">
         <v>433</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -7605,37 +7611,37 @@
     </row>
     <row r="42" spans="1:9" s="193" customFormat="1" ht="76.5">
       <c r="A42" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="B42" s="170" t="s">
         <v>434</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="D42" s="288" t="s">
-        <v>493</v>
-      </c>
-      <c r="E42" s="288"/>
-      <c r="F42" s="289"/>
-      <c r="G42" s="289"/>
-      <c r="H42" s="289"/>
-      <c r="I42" s="290"/>
+        <v>488</v>
+      </c>
+      <c r="D42" s="224" t="s">
+        <v>491</v>
+      </c>
+      <c r="E42" s="224"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="226"/>
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A43" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="B43" s="194" t="s">
         <v>435</v>
       </c>
       <c r="C43" s="172" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D43" s="173" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E43" s="174"/>
       <c r="F43" s="172"/>
@@ -7645,17 +7651,17 @@
     </row>
     <row r="44" spans="1:9" s="175" customFormat="1" ht="76.5">
       <c r="A44" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
       <c r="B44" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="C44" s="286" t="s">
-        <v>492</v>
-      </c>
-      <c r="D44" s="287" t="s">
-        <v>495</v>
+      <c r="C44" s="222" t="s">
+        <v>490</v>
+      </c>
+      <c r="D44" s="223" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="200" customFormat="1" ht="15" customHeight="1">
@@ -7663,52 +7669,52 @@
       <c r="B45" s="208" t="s">
         <v>437</v>
       </c>
-      <c r="C45" s="284"/>
-      <c r="D45" s="306"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="242"/>
     </row>
     <row r="46" spans="1:9" s="175" customFormat="1" ht="51">
       <c r="A46" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="B46" s="206" t="s">
         <v>455</v>
       </c>
-      <c r="C46" s="286" t="s">
-        <v>498</v>
+      <c r="C46" s="222" t="s">
+        <v>496</v>
       </c>
       <c r="D46" s="206" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="175" customFormat="1" ht="63.75">
       <c r="A47" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="B47" s="206" t="s">
-        <v>496</v>
-      </c>
-      <c r="C47" s="286" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="222" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="206" t="s">
         <v>497</v>
-      </c>
-      <c r="D47" s="206" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="175" customFormat="1" ht="89.25">
       <c r="A48" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
       <c r="B48" s="206" t="s">
         <v>441</v>
       </c>
       <c r="C48" s="206" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D48" s="206" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="200" customFormat="1">
@@ -7716,82 +7722,82 @@
       <c r="B49" s="208" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="306"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="242"/>
     </row>
     <row r="50" spans="1:4" s="175" customFormat="1" ht="89.25">
       <c r="A50" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="B50" s="206" t="s">
         <v>445</v>
       </c>
       <c r="C50" s="206" t="s">
-        <v>502</v>
-      </c>
-      <c r="D50" s="287" t="s">
-        <v>507</v>
+        <v>500</v>
+      </c>
+      <c r="D50" s="223" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="175" customFormat="1" ht="89.25">
       <c r="A51" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="B51" s="206" t="s">
         <v>442</v>
       </c>
       <c r="C51" s="206" t="s">
-        <v>506</v>
-      </c>
-      <c r="D51" s="287" t="s">
-        <v>511</v>
+        <v>504</v>
+      </c>
+      <c r="D51" s="223" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="175" customFormat="1" ht="89.25">
       <c r="A52" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
       <c r="B52" s="207" t="s">
         <v>443</v>
       </c>
       <c r="C52" s="206" t="s">
-        <v>505</v>
-      </c>
-      <c r="D52" s="287" t="s">
-        <v>510</v>
+        <v>503</v>
+      </c>
+      <c r="D52" s="223" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="175" customFormat="1" ht="89.25">
       <c r="A53" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="B53" s="207" t="s">
         <v>444</v>
       </c>
       <c r="C53" s="206" t="s">
-        <v>504</v>
-      </c>
-      <c r="D53" s="287" t="s">
-        <v>509</v>
+        <v>502</v>
+      </c>
+      <c r="D53" s="223" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="175" customFormat="1" ht="89.25">
       <c r="A54" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
       <c r="B54" s="206" t="s">
         <v>446</v>
       </c>
       <c r="C54" s="206" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D54" s="206" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="200" customFormat="1">
@@ -7799,112 +7805,112 @@
       <c r="B55" s="208" t="s">
         <v>438</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="306"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="242"/>
     </row>
     <row r="56" spans="1:4" s="175" customFormat="1" ht="38.25" customHeight="1">
       <c r="A56" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="B56" s="206" t="s">
+        <v>518</v>
+      </c>
+      <c r="C56" s="206" t="s">
+        <v>512</v>
+      </c>
+      <c r="D56" s="206" t="s">
         <v>520</v>
-      </c>
-      <c r="C56" s="206" t="s">
-        <v>514</v>
-      </c>
-      <c r="D56" s="206" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="175" customFormat="1" ht="89.25" customHeight="1">
       <c r="A57" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="B57" s="206" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C57" s="206" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D57" s="206" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="175" customFormat="1" ht="102">
       <c r="A58" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="B58" s="206" t="s">
         <v>447</v>
       </c>
       <c r="C58" s="206" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D58" s="206" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="175" customFormat="1" ht="102">
       <c r="A59" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="B59" s="206" t="s">
         <v>448</v>
       </c>
       <c r="C59" s="206" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D59" s="206" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="175" customFormat="1" ht="63.75">
       <c r="A60" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="B60" s="206" t="s">
         <v>449</v>
       </c>
       <c r="C60" s="207" t="s">
-        <v>517</v>
-      </c>
-      <c r="D60" s="287" t="s">
-        <v>524</v>
+        <v>515</v>
+      </c>
+      <c r="D60" s="223" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="175" customFormat="1" ht="63.75">
       <c r="A61" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
       <c r="B61" s="206" t="s">
         <v>450</v>
       </c>
       <c r="C61" s="207" t="s">
-        <v>513</v>
-      </c>
-      <c r="D61" s="287" t="s">
-        <v>525</v>
+        <v>511</v>
+      </c>
+      <c r="D61" s="223" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="175" customFormat="1" ht="63.75">
       <c r="A62" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="B62" s="207" t="s">
         <v>454</v>
       </c>
       <c r="C62" s="207" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D62" s="206" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="175" customFormat="1" ht="102">
@@ -7915,2004 +7921,2004 @@
         <v>451</v>
       </c>
       <c r="C63" s="207" t="s">
-        <v>518</v>
-      </c>
-      <c r="D63" s="287" t="s">
-        <v>527</v>
+        <v>516</v>
+      </c>
+      <c r="D63" s="223" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="175" customFormat="1">
       <c r="A64" s="62"/>
       <c r="B64" s="198"/>
-      <c r="C64" s="283"/>
-      <c r="D64" s="287"/>
+      <c r="C64" s="219"/>
+      <c r="D64" s="223"/>
     </row>
     <row r="65" spans="1:4" s="175" customFormat="1">
       <c r="A65" s="62"/>
       <c r="B65" s="198"/>
-      <c r="C65" s="283"/>
-      <c r="D65" s="287"/>
+      <c r="C65" s="219"/>
+      <c r="D65" s="223"/>
     </row>
     <row r="66" spans="1:4" s="175" customFormat="1">
       <c r="A66" s="62"/>
       <c r="B66" s="198"/>
-      <c r="C66" s="283"/>
-      <c r="D66" s="287"/>
+      <c r="C66" s="219"/>
+      <c r="D66" s="223"/>
     </row>
     <row r="67" spans="1:4" s="175" customFormat="1">
       <c r="A67" s="62"/>
       <c r="B67" s="198"/>
-      <c r="C67" s="283"/>
-      <c r="D67" s="287"/>
+      <c r="C67" s="219"/>
+      <c r="D67" s="223"/>
     </row>
     <row r="68" spans="1:4" s="175" customFormat="1">
       <c r="A68" s="62"/>
       <c r="B68" s="198"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="287"/>
+      <c r="C68" s="219"/>
+      <c r="D68" s="223"/>
     </row>
     <row r="69" spans="1:4" s="175" customFormat="1">
       <c r="A69" s="62"/>
       <c r="B69" s="198"/>
-      <c r="C69" s="283"/>
-      <c r="D69" s="287"/>
+      <c r="C69" s="219"/>
+      <c r="D69" s="223"/>
     </row>
     <row r="70" spans="1:4" s="175" customFormat="1">
       <c r="A70" s="62"/>
       <c r="B70" s="198"/>
-      <c r="C70" s="283"/>
-      <c r="D70" s="287"/>
+      <c r="C70" s="219"/>
+      <c r="D70" s="223"/>
     </row>
     <row r="71" spans="1:4" s="175" customFormat="1">
       <c r="A71" s="62"/>
       <c r="B71" s="198"/>
-      <c r="C71" s="283"/>
-      <c r="D71" s="287"/>
+      <c r="C71" s="219"/>
+      <c r="D71" s="223"/>
     </row>
     <row r="72" spans="1:4" s="175" customFormat="1">
       <c r="A72" s="62"/>
       <c r="B72" s="198"/>
-      <c r="C72" s="283"/>
-      <c r="D72" s="287"/>
+      <c r="C72" s="219"/>
+      <c r="D72" s="223"/>
     </row>
     <row r="73" spans="1:4" s="175" customFormat="1">
       <c r="A73" s="62"/>
       <c r="B73" s="198"/>
-      <c r="C73" s="283"/>
-      <c r="D73" s="287"/>
+      <c r="C73" s="219"/>
+      <c r="D73" s="223"/>
     </row>
     <row r="74" spans="1:4" s="175" customFormat="1">
       <c r="A74" s="62"/>
       <c r="B74" s="198"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="287"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="223"/>
     </row>
     <row r="75" spans="1:4" s="175" customFormat="1">
       <c r="A75" s="62"/>
       <c r="B75" s="198"/>
-      <c r="C75" s="283"/>
-      <c r="D75" s="287"/>
+      <c r="C75" s="219"/>
+      <c r="D75" s="223"/>
     </row>
     <row r="76" spans="1:4" s="175" customFormat="1">
       <c r="A76" s="62"/>
       <c r="B76" s="198"/>
-      <c r="C76" s="283"/>
-      <c r="D76" s="287"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="223"/>
     </row>
     <row r="77" spans="1:4" s="175" customFormat="1">
       <c r="A77" s="62"/>
       <c r="B77" s="198"/>
-      <c r="C77" s="283"/>
-      <c r="D77" s="287"/>
+      <c r="C77" s="219"/>
+      <c r="D77" s="223"/>
     </row>
     <row r="78" spans="1:4" s="175" customFormat="1">
       <c r="A78" s="62"/>
       <c r="B78" s="198"/>
-      <c r="C78" s="283"/>
-      <c r="D78" s="287"/>
+      <c r="C78" s="219"/>
+      <c r="D78" s="223"/>
     </row>
     <row r="79" spans="1:4" s="175" customFormat="1">
       <c r="A79" s="62"/>
       <c r="B79" s="198"/>
-      <c r="C79" s="283"/>
-      <c r="D79" s="287"/>
+      <c r="C79" s="219"/>
+      <c r="D79" s="223"/>
     </row>
     <row r="80" spans="1:4" s="175" customFormat="1">
       <c r="A80" s="62"/>
       <c r="B80" s="198"/>
-      <c r="C80" s="283"/>
-      <c r="D80" s="287"/>
+      <c r="C80" s="219"/>
+      <c r="D80" s="223"/>
     </row>
     <row r="81" spans="1:4" s="175" customFormat="1">
       <c r="A81" s="62"/>
       <c r="B81" s="198"/>
-      <c r="C81" s="283"/>
-      <c r="D81" s="287"/>
+      <c r="C81" s="219"/>
+      <c r="D81" s="223"/>
     </row>
     <row r="82" spans="1:4" s="175" customFormat="1">
-      <c r="A82" s="298"/>
+      <c r="A82" s="234"/>
       <c r="B82" s="198"/>
-      <c r="C82" s="283"/>
-      <c r="D82" s="287"/>
+      <c r="C82" s="219"/>
+      <c r="D82" s="223"/>
     </row>
     <row r="83" spans="1:4" s="175" customFormat="1">
-      <c r="A83" s="298"/>
+      <c r="A83" s="234"/>
       <c r="B83" s="198"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="287"/>
+      <c r="C83" s="219"/>
+      <c r="D83" s="223"/>
     </row>
     <row r="84" spans="1:4" s="175" customFormat="1">
-      <c r="A84" s="298"/>
+      <c r="A84" s="234"/>
       <c r="B84" s="198"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="287"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="223"/>
     </row>
     <row r="85" spans="1:4" s="175" customFormat="1">
-      <c r="A85" s="298"/>
+      <c r="A85" s="234"/>
       <c r="B85" s="198"/>
-      <c r="C85" s="283"/>
-      <c r="D85" s="287"/>
+      <c r="C85" s="219"/>
+      <c r="D85" s="223"/>
     </row>
     <row r="86" spans="1:4" s="175" customFormat="1">
-      <c r="A86" s="298"/>
+      <c r="A86" s="234"/>
       <c r="B86" s="198"/>
-      <c r="C86" s="283"/>
-      <c r="D86" s="287"/>
+      <c r="C86" s="219"/>
+      <c r="D86" s="223"/>
     </row>
     <row r="87" spans="1:4" s="175" customFormat="1">
-      <c r="A87" s="298"/>
+      <c r="A87" s="234"/>
       <c r="B87" s="198"/>
-      <c r="C87" s="283"/>
-      <c r="D87" s="287"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="223"/>
     </row>
     <row r="88" spans="1:4" s="175" customFormat="1">
-      <c r="A88" s="298"/>
+      <c r="A88" s="234"/>
       <c r="B88" s="198"/>
-      <c r="C88" s="283"/>
-      <c r="D88" s="287"/>
+      <c r="C88" s="219"/>
+      <c r="D88" s="223"/>
     </row>
     <row r="89" spans="1:4" s="175" customFormat="1">
-      <c r="A89" s="298"/>
+      <c r="A89" s="234"/>
       <c r="B89" s="198"/>
-      <c r="C89" s="283"/>
-      <c r="D89" s="287"/>
+      <c r="C89" s="219"/>
+      <c r="D89" s="223"/>
     </row>
     <row r="90" spans="1:4" s="175" customFormat="1">
-      <c r="A90" s="298"/>
+      <c r="A90" s="234"/>
       <c r="B90" s="198"/>
-      <c r="C90" s="283"/>
-      <c r="D90" s="287"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="223"/>
     </row>
     <row r="91" spans="1:4" s="175" customFormat="1">
-      <c r="A91" s="298"/>
+      <c r="A91" s="234"/>
       <c r="B91" s="198"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="287"/>
+      <c r="C91" s="219"/>
+      <c r="D91" s="223"/>
     </row>
     <row r="92" spans="1:4" s="175" customFormat="1">
-      <c r="A92" s="298"/>
+      <c r="A92" s="234"/>
       <c r="B92" s="198"/>
-      <c r="C92" s="283"/>
-      <c r="D92" s="287"/>
+      <c r="C92" s="219"/>
+      <c r="D92" s="223"/>
     </row>
     <row r="93" spans="1:4" s="175" customFormat="1">
-      <c r="A93" s="298"/>
+      <c r="A93" s="234"/>
       <c r="B93" s="198"/>
-      <c r="C93" s="283"/>
-      <c r="D93" s="287"/>
+      <c r="C93" s="219"/>
+      <c r="D93" s="223"/>
     </row>
     <row r="94" spans="1:4" s="175" customFormat="1">
-      <c r="A94" s="298"/>
+      <c r="A94" s="234"/>
       <c r="B94" s="198"/>
-      <c r="C94" s="283"/>
-      <c r="D94" s="287"/>
+      <c r="C94" s="219"/>
+      <c r="D94" s="223"/>
     </row>
     <row r="95" spans="1:4" s="175" customFormat="1">
-      <c r="A95" s="298"/>
+      <c r="A95" s="234"/>
       <c r="B95" s="198"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="287"/>
+      <c r="C95" s="219"/>
+      <c r="D95" s="223"/>
     </row>
     <row r="96" spans="1:4" s="175" customFormat="1">
-      <c r="A96" s="298"/>
+      <c r="A96" s="234"/>
       <c r="B96" s="198"/>
-      <c r="C96" s="283"/>
-      <c r="D96" s="287"/>
+      <c r="C96" s="219"/>
+      <c r="D96" s="223"/>
     </row>
     <row r="97" spans="1:4" s="175" customFormat="1">
-      <c r="A97" s="298"/>
+      <c r="A97" s="234"/>
       <c r="B97" s="198"/>
-      <c r="C97" s="283"/>
-      <c r="D97" s="287"/>
+      <c r="C97" s="219"/>
+      <c r="D97" s="223"/>
     </row>
     <row r="98" spans="1:4" s="175" customFormat="1">
-      <c r="A98" s="298"/>
+      <c r="A98" s="234"/>
       <c r="B98" s="198"/>
-      <c r="C98" s="283"/>
-      <c r="D98" s="287"/>
+      <c r="C98" s="219"/>
+      <c r="D98" s="223"/>
     </row>
     <row r="99" spans="1:4" s="175" customFormat="1">
-      <c r="A99" s="298"/>
+      <c r="A99" s="234"/>
       <c r="B99" s="198"/>
-      <c r="C99" s="283"/>
-      <c r="D99" s="287"/>
+      <c r="C99" s="219"/>
+      <c r="D99" s="223"/>
     </row>
     <row r="100" spans="1:4" s="175" customFormat="1">
-      <c r="A100" s="298"/>
+      <c r="A100" s="234"/>
       <c r="B100" s="198"/>
-      <c r="C100" s="283"/>
-      <c r="D100" s="287"/>
+      <c r="C100" s="219"/>
+      <c r="D100" s="223"/>
     </row>
     <row r="101" spans="1:4" s="175" customFormat="1">
-      <c r="A101" s="298"/>
+      <c r="A101" s="234"/>
       <c r="B101" s="198"/>
-      <c r="C101" s="283"/>
-      <c r="D101" s="287"/>
+      <c r="C101" s="219"/>
+      <c r="D101" s="223"/>
     </row>
     <row r="102" spans="1:4" s="175" customFormat="1">
-      <c r="A102" s="298"/>
+      <c r="A102" s="234"/>
       <c r="B102" s="198"/>
-      <c r="C102" s="283"/>
-      <c r="D102" s="287"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="223"/>
     </row>
     <row r="103" spans="1:4" s="175" customFormat="1">
-      <c r="A103" s="298"/>
+      <c r="A103" s="234"/>
       <c r="B103" s="198"/>
-      <c r="C103" s="283"/>
-      <c r="D103" s="287"/>
+      <c r="C103" s="219"/>
+      <c r="D103" s="223"/>
     </row>
     <row r="104" spans="1:4" s="175" customFormat="1">
-      <c r="A104" s="298"/>
+      <c r="A104" s="234"/>
       <c r="B104" s="198"/>
-      <c r="C104" s="283"/>
-      <c r="D104" s="287"/>
+      <c r="C104" s="219"/>
+      <c r="D104" s="223"/>
     </row>
     <row r="105" spans="1:4" s="175" customFormat="1">
-      <c r="A105" s="298"/>
+      <c r="A105" s="234"/>
       <c r="B105" s="198"/>
-      <c r="C105" s="283"/>
-      <c r="D105" s="287"/>
+      <c r="C105" s="219"/>
+      <c r="D105" s="223"/>
     </row>
     <row r="106" spans="1:4" s="175" customFormat="1">
-      <c r="A106" s="298"/>
+      <c r="A106" s="234"/>
       <c r="B106" s="198"/>
-      <c r="C106" s="283"/>
-      <c r="D106" s="287"/>
+      <c r="C106" s="219"/>
+      <c r="D106" s="223"/>
     </row>
     <row r="107" spans="1:4" s="175" customFormat="1">
-      <c r="A107" s="298"/>
+      <c r="A107" s="234"/>
       <c r="B107" s="198"/>
-      <c r="C107" s="283"/>
-      <c r="D107" s="287"/>
+      <c r="C107" s="219"/>
+      <c r="D107" s="223"/>
     </row>
     <row r="108" spans="1:4" s="175" customFormat="1">
-      <c r="A108" s="298"/>
+      <c r="A108" s="234"/>
       <c r="B108" s="198"/>
-      <c r="C108" s="283"/>
-      <c r="D108" s="287"/>
+      <c r="C108" s="219"/>
+      <c r="D108" s="223"/>
     </row>
     <row r="109" spans="1:4" s="175" customFormat="1">
-      <c r="A109" s="298"/>
+      <c r="A109" s="234"/>
       <c r="B109" s="198"/>
-      <c r="C109" s="283"/>
-      <c r="D109" s="287"/>
+      <c r="C109" s="219"/>
+      <c r="D109" s="223"/>
     </row>
     <row r="110" spans="1:4" s="175" customFormat="1">
-      <c r="A110" s="298"/>
+      <c r="A110" s="234"/>
       <c r="B110" s="198"/>
-      <c r="C110" s="283"/>
-      <c r="D110" s="287"/>
+      <c r="C110" s="219"/>
+      <c r="D110" s="223"/>
     </row>
     <row r="111" spans="1:4" s="175" customFormat="1">
-      <c r="A111" s="298"/>
+      <c r="A111" s="234"/>
       <c r="B111" s="198"/>
-      <c r="C111" s="283"/>
-      <c r="D111" s="287"/>
+      <c r="C111" s="219"/>
+      <c r="D111" s="223"/>
     </row>
     <row r="112" spans="1:4" s="175" customFormat="1">
-      <c r="A112" s="298"/>
+      <c r="A112" s="234"/>
       <c r="B112" s="198"/>
-      <c r="C112" s="283"/>
-      <c r="D112" s="287"/>
+      <c r="C112" s="219"/>
+      <c r="D112" s="223"/>
     </row>
     <row r="113" spans="1:4" s="175" customFormat="1">
-      <c r="A113" s="298"/>
+      <c r="A113" s="234"/>
       <c r="B113" s="198"/>
-      <c r="C113" s="283"/>
-      <c r="D113" s="287"/>
+      <c r="C113" s="219"/>
+      <c r="D113" s="223"/>
     </row>
     <row r="114" spans="1:4" s="175" customFormat="1">
-      <c r="A114" s="298"/>
+      <c r="A114" s="234"/>
       <c r="B114" s="198"/>
-      <c r="C114" s="283"/>
-      <c r="D114" s="287"/>
+      <c r="C114" s="219"/>
+      <c r="D114" s="223"/>
     </row>
     <row r="115" spans="1:4" s="175" customFormat="1">
-      <c r="A115" s="298"/>
+      <c r="A115" s="234"/>
       <c r="B115" s="198"/>
-      <c r="C115" s="283"/>
-      <c r="D115" s="287"/>
+      <c r="C115" s="219"/>
+      <c r="D115" s="223"/>
     </row>
     <row r="116" spans="1:4" s="175" customFormat="1">
-      <c r="A116" s="298"/>
+      <c r="A116" s="234"/>
       <c r="B116" s="198"/>
-      <c r="C116" s="283"/>
-      <c r="D116" s="287"/>
+      <c r="C116" s="219"/>
+      <c r="D116" s="223"/>
     </row>
     <row r="117" spans="1:4" s="175" customFormat="1">
-      <c r="A117" s="298"/>
+      <c r="A117" s="234"/>
       <c r="B117" s="198"/>
-      <c r="C117" s="283"/>
-      <c r="D117" s="287"/>
+      <c r="C117" s="219"/>
+      <c r="D117" s="223"/>
     </row>
     <row r="118" spans="1:4" s="175" customFormat="1">
-      <c r="A118" s="298"/>
+      <c r="A118" s="234"/>
       <c r="B118" s="198"/>
-      <c r="C118" s="283"/>
-      <c r="D118" s="287"/>
+      <c r="C118" s="219"/>
+      <c r="D118" s="223"/>
     </row>
     <row r="119" spans="1:4" s="175" customFormat="1">
-      <c r="A119" s="298"/>
+      <c r="A119" s="234"/>
       <c r="B119" s="198"/>
-      <c r="C119" s="283"/>
-      <c r="D119" s="287"/>
+      <c r="C119" s="219"/>
+      <c r="D119" s="223"/>
     </row>
     <row r="120" spans="1:4" s="175" customFormat="1">
-      <c r="A120" s="298"/>
+      <c r="A120" s="234"/>
       <c r="B120" s="198"/>
-      <c r="C120" s="283"/>
-      <c r="D120" s="287"/>
+      <c r="C120" s="219"/>
+      <c r="D120" s="223"/>
     </row>
     <row r="121" spans="1:4" s="175" customFormat="1">
-      <c r="A121" s="298"/>
+      <c r="A121" s="234"/>
       <c r="B121" s="198"/>
-      <c r="C121" s="283"/>
-      <c r="D121" s="287"/>
+      <c r="C121" s="219"/>
+      <c r="D121" s="223"/>
     </row>
     <row r="122" spans="1:4" s="175" customFormat="1">
-      <c r="A122" s="298"/>
+      <c r="A122" s="234"/>
       <c r="B122" s="198"/>
-      <c r="C122" s="283"/>
-      <c r="D122" s="287"/>
+      <c r="C122" s="219"/>
+      <c r="D122" s="223"/>
     </row>
     <row r="123" spans="1:4" s="175" customFormat="1">
-      <c r="A123" s="298"/>
+      <c r="A123" s="234"/>
       <c r="B123" s="198"/>
-      <c r="C123" s="283"/>
-      <c r="D123" s="287"/>
+      <c r="C123" s="219"/>
+      <c r="D123" s="223"/>
     </row>
     <row r="124" spans="1:4" s="175" customFormat="1">
-      <c r="A124" s="298"/>
+      <c r="A124" s="234"/>
       <c r="B124" s="198"/>
-      <c r="C124" s="283"/>
-      <c r="D124" s="287"/>
+      <c r="C124" s="219"/>
+      <c r="D124" s="223"/>
     </row>
     <row r="125" spans="1:4" s="175" customFormat="1">
-      <c r="A125" s="298"/>
+      <c r="A125" s="234"/>
       <c r="B125" s="198"/>
-      <c r="C125" s="283"/>
-      <c r="D125" s="287"/>
+      <c r="C125" s="219"/>
+      <c r="D125" s="223"/>
     </row>
     <row r="126" spans="1:4" s="175" customFormat="1">
-      <c r="A126" s="298"/>
+      <c r="A126" s="234"/>
       <c r="B126" s="198"/>
-      <c r="C126" s="283"/>
-      <c r="D126" s="287"/>
+      <c r="C126" s="219"/>
+      <c r="D126" s="223"/>
     </row>
     <row r="127" spans="1:4" s="175" customFormat="1">
-      <c r="A127" s="298"/>
+      <c r="A127" s="234"/>
       <c r="B127" s="198"/>
-      <c r="C127" s="283"/>
-      <c r="D127" s="287"/>
+      <c r="C127" s="219"/>
+      <c r="D127" s="223"/>
     </row>
     <row r="128" spans="1:4" s="175" customFormat="1">
-      <c r="A128" s="298"/>
+      <c r="A128" s="234"/>
       <c r="B128" s="198"/>
-      <c r="C128" s="283"/>
-      <c r="D128" s="287"/>
+      <c r="C128" s="219"/>
+      <c r="D128" s="223"/>
     </row>
     <row r="129" spans="1:4" s="175" customFormat="1">
-      <c r="A129" s="298"/>
+      <c r="A129" s="234"/>
       <c r="B129" s="198"/>
-      <c r="C129" s="283"/>
-      <c r="D129" s="287"/>
+      <c r="C129" s="219"/>
+      <c r="D129" s="223"/>
     </row>
     <row r="130" spans="1:4" s="175" customFormat="1">
-      <c r="A130" s="298"/>
+      <c r="A130" s="234"/>
       <c r="B130" s="198"/>
-      <c r="C130" s="283"/>
-      <c r="D130" s="287"/>
+      <c r="C130" s="219"/>
+      <c r="D130" s="223"/>
     </row>
     <row r="131" spans="1:4" s="175" customFormat="1">
-      <c r="A131" s="298"/>
+      <c r="A131" s="234"/>
       <c r="B131" s="198"/>
-      <c r="C131" s="283"/>
-      <c r="D131" s="287"/>
+      <c r="C131" s="219"/>
+      <c r="D131" s="223"/>
     </row>
     <row r="132" spans="1:4" s="175" customFormat="1">
-      <c r="A132" s="298"/>
+      <c r="A132" s="234"/>
       <c r="B132" s="198"/>
-      <c r="C132" s="283"/>
-      <c r="D132" s="287"/>
+      <c r="C132" s="219"/>
+      <c r="D132" s="223"/>
     </row>
     <row r="133" spans="1:4" s="175" customFormat="1">
-      <c r="A133" s="298"/>
+      <c r="A133" s="234"/>
       <c r="B133" s="198"/>
-      <c r="C133" s="283"/>
-      <c r="D133" s="287"/>
+      <c r="C133" s="219"/>
+      <c r="D133" s="223"/>
     </row>
     <row r="134" spans="1:4" s="175" customFormat="1">
-      <c r="A134" s="298"/>
+      <c r="A134" s="234"/>
       <c r="B134" s="198"/>
-      <c r="C134" s="283"/>
-      <c r="D134" s="287"/>
+      <c r="C134" s="219"/>
+      <c r="D134" s="223"/>
     </row>
     <row r="135" spans="1:4" s="175" customFormat="1">
-      <c r="A135" s="298"/>
+      <c r="A135" s="234"/>
       <c r="B135" s="198"/>
-      <c r="C135" s="283"/>
-      <c r="D135" s="287"/>
+      <c r="C135" s="219"/>
+      <c r="D135" s="223"/>
     </row>
     <row r="136" spans="1:4" s="175" customFormat="1">
-      <c r="A136" s="298"/>
+      <c r="A136" s="234"/>
       <c r="B136" s="198"/>
-      <c r="C136" s="283"/>
-      <c r="D136" s="287"/>
+      <c r="C136" s="219"/>
+      <c r="D136" s="223"/>
     </row>
     <row r="137" spans="1:4" s="175" customFormat="1">
-      <c r="A137" s="298"/>
+      <c r="A137" s="234"/>
       <c r="B137" s="198"/>
-      <c r="C137" s="283"/>
-      <c r="D137" s="287"/>
+      <c r="C137" s="219"/>
+      <c r="D137" s="223"/>
     </row>
     <row r="138" spans="1:4" s="175" customFormat="1">
-      <c r="A138" s="298"/>
+      <c r="A138" s="234"/>
       <c r="B138" s="198"/>
-      <c r="C138" s="283"/>
-      <c r="D138" s="287"/>
+      <c r="C138" s="219"/>
+      <c r="D138" s="223"/>
     </row>
     <row r="139" spans="1:4" s="175" customFormat="1">
-      <c r="A139" s="298"/>
+      <c r="A139" s="234"/>
       <c r="B139" s="198"/>
-      <c r="C139" s="283"/>
-      <c r="D139" s="287"/>
+      <c r="C139" s="219"/>
+      <c r="D139" s="223"/>
     </row>
     <row r="140" spans="1:4" s="175" customFormat="1">
-      <c r="A140" s="298"/>
+      <c r="A140" s="234"/>
       <c r="B140" s="198"/>
-      <c r="C140" s="283"/>
-      <c r="D140" s="287"/>
+      <c r="C140" s="219"/>
+      <c r="D140" s="223"/>
     </row>
     <row r="141" spans="1:4" s="175" customFormat="1">
-      <c r="A141" s="298"/>
+      <c r="A141" s="234"/>
       <c r="B141" s="198"/>
-      <c r="C141" s="283"/>
-      <c r="D141" s="287"/>
+      <c r="C141" s="219"/>
+      <c r="D141" s="223"/>
     </row>
     <row r="142" spans="1:4" s="175" customFormat="1">
-      <c r="A142" s="298"/>
+      <c r="A142" s="234"/>
       <c r="B142" s="198"/>
-      <c r="C142" s="283"/>
-      <c r="D142" s="287"/>
+      <c r="C142" s="219"/>
+      <c r="D142" s="223"/>
     </row>
     <row r="143" spans="1:4" s="175" customFormat="1">
-      <c r="A143" s="298"/>
+      <c r="A143" s="234"/>
       <c r="B143" s="198"/>
-      <c r="C143" s="283"/>
-      <c r="D143" s="287"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="223"/>
     </row>
     <row r="144" spans="1:4" s="175" customFormat="1">
-      <c r="A144" s="298"/>
+      <c r="A144" s="234"/>
       <c r="B144" s="198"/>
-      <c r="C144" s="283"/>
-      <c r="D144" s="287"/>
+      <c r="C144" s="219"/>
+      <c r="D144" s="223"/>
     </row>
     <row r="145" spans="1:4" s="175" customFormat="1">
-      <c r="A145" s="298"/>
+      <c r="A145" s="234"/>
       <c r="B145" s="198"/>
-      <c r="C145" s="283"/>
-      <c r="D145" s="287"/>
+      <c r="C145" s="219"/>
+      <c r="D145" s="223"/>
     </row>
     <row r="146" spans="1:4" s="175" customFormat="1">
-      <c r="A146" s="298"/>
+      <c r="A146" s="234"/>
       <c r="B146" s="198"/>
-      <c r="C146" s="283"/>
-      <c r="D146" s="287"/>
+      <c r="C146" s="219"/>
+      <c r="D146" s="223"/>
     </row>
     <row r="147" spans="1:4" s="175" customFormat="1">
-      <c r="A147" s="298"/>
+      <c r="A147" s="234"/>
       <c r="B147" s="198"/>
-      <c r="C147" s="283"/>
-      <c r="D147" s="287"/>
+      <c r="C147" s="219"/>
+      <c r="D147" s="223"/>
     </row>
     <row r="148" spans="1:4" s="175" customFormat="1">
-      <c r="A148" s="298"/>
+      <c r="A148" s="234"/>
       <c r="B148" s="198"/>
-      <c r="C148" s="283"/>
-      <c r="D148" s="287"/>
+      <c r="C148" s="219"/>
+      <c r="D148" s="223"/>
     </row>
     <row r="149" spans="1:4" s="175" customFormat="1">
-      <c r="A149" s="298"/>
+      <c r="A149" s="234"/>
       <c r="B149" s="198"/>
-      <c r="C149" s="283"/>
-      <c r="D149" s="287"/>
+      <c r="C149" s="219"/>
+      <c r="D149" s="223"/>
     </row>
     <row r="150" spans="1:4" s="175" customFormat="1">
-      <c r="A150" s="298"/>
+      <c r="A150" s="234"/>
       <c r="B150" s="198"/>
-      <c r="C150" s="283"/>
-      <c r="D150" s="287"/>
+      <c r="C150" s="219"/>
+      <c r="D150" s="223"/>
     </row>
     <row r="151" spans="1:4" s="175" customFormat="1">
-      <c r="A151" s="298"/>
+      <c r="A151" s="234"/>
       <c r="B151" s="198"/>
-      <c r="C151" s="283"/>
-      <c r="D151" s="287"/>
+      <c r="C151" s="219"/>
+      <c r="D151" s="223"/>
     </row>
     <row r="152" spans="1:4" s="175" customFormat="1">
-      <c r="A152" s="298"/>
+      <c r="A152" s="234"/>
       <c r="B152" s="198"/>
-      <c r="C152" s="283"/>
-      <c r="D152" s="287"/>
+      <c r="C152" s="219"/>
+      <c r="D152" s="223"/>
     </row>
     <row r="153" spans="1:4" s="175" customFormat="1">
-      <c r="A153" s="298"/>
+      <c r="A153" s="234"/>
       <c r="B153" s="198"/>
-      <c r="C153" s="283"/>
-      <c r="D153" s="287"/>
+      <c r="C153" s="219"/>
+      <c r="D153" s="223"/>
     </row>
     <row r="154" spans="1:4" s="175" customFormat="1">
-      <c r="A154" s="298"/>
+      <c r="A154" s="234"/>
       <c r="B154" s="198"/>
-      <c r="C154" s="283"/>
-      <c r="D154" s="287"/>
+      <c r="C154" s="219"/>
+      <c r="D154" s="223"/>
     </row>
     <row r="155" spans="1:4" s="175" customFormat="1">
-      <c r="A155" s="298"/>
+      <c r="A155" s="234"/>
       <c r="B155" s="198"/>
-      <c r="C155" s="283"/>
-      <c r="D155" s="287"/>
+      <c r="C155" s="219"/>
+      <c r="D155" s="223"/>
     </row>
     <row r="156" spans="1:4" s="175" customFormat="1">
-      <c r="A156" s="298"/>
+      <c r="A156" s="234"/>
       <c r="B156" s="198"/>
-      <c r="C156" s="283"/>
-      <c r="D156" s="287"/>
+      <c r="C156" s="219"/>
+      <c r="D156" s="223"/>
     </row>
     <row r="157" spans="1:4" s="175" customFormat="1">
-      <c r="A157" s="298"/>
+      <c r="A157" s="234"/>
       <c r="B157" s="198"/>
-      <c r="C157" s="283"/>
-      <c r="D157" s="287"/>
+      <c r="C157" s="219"/>
+      <c r="D157" s="223"/>
     </row>
     <row r="158" spans="1:4" s="175" customFormat="1">
-      <c r="A158" s="298"/>
+      <c r="A158" s="234"/>
       <c r="B158" s="198"/>
-      <c r="C158" s="283"/>
-      <c r="D158" s="287"/>
+      <c r="C158" s="219"/>
+      <c r="D158" s="223"/>
     </row>
     <row r="159" spans="1:4" s="175" customFormat="1">
-      <c r="A159" s="298"/>
+      <c r="A159" s="234"/>
       <c r="B159" s="198"/>
-      <c r="C159" s="283"/>
-      <c r="D159" s="287"/>
+      <c r="C159" s="219"/>
+      <c r="D159" s="223"/>
     </row>
     <row r="160" spans="1:4" s="175" customFormat="1">
-      <c r="A160" s="298"/>
+      <c r="A160" s="234"/>
       <c r="B160" s="198"/>
-      <c r="C160" s="283"/>
-      <c r="D160" s="287"/>
+      <c r="C160" s="219"/>
+      <c r="D160" s="223"/>
     </row>
     <row r="161" spans="1:4" s="175" customFormat="1">
-      <c r="A161" s="298"/>
+      <c r="A161" s="234"/>
       <c r="B161" s="198"/>
-      <c r="C161" s="283"/>
-      <c r="D161" s="287"/>
+      <c r="C161" s="219"/>
+      <c r="D161" s="223"/>
     </row>
     <row r="162" spans="1:4" s="175" customFormat="1">
-      <c r="A162" s="298"/>
+      <c r="A162" s="234"/>
       <c r="B162" s="198"/>
-      <c r="C162" s="283"/>
-      <c r="D162" s="287"/>
+      <c r="C162" s="219"/>
+      <c r="D162" s="223"/>
     </row>
     <row r="163" spans="1:4" s="175" customFormat="1">
-      <c r="A163" s="298"/>
+      <c r="A163" s="234"/>
       <c r="B163" s="198"/>
-      <c r="C163" s="283"/>
-      <c r="D163" s="287"/>
+      <c r="C163" s="219"/>
+      <c r="D163" s="223"/>
     </row>
     <row r="164" spans="1:4" s="175" customFormat="1">
-      <c r="A164" s="298"/>
+      <c r="A164" s="234"/>
       <c r="B164" s="198"/>
-      <c r="C164" s="283"/>
-      <c r="D164" s="287"/>
+      <c r="C164" s="219"/>
+      <c r="D164" s="223"/>
     </row>
     <row r="165" spans="1:4" s="175" customFormat="1">
-      <c r="A165" s="298"/>
+      <c r="A165" s="234"/>
       <c r="B165" s="198"/>
-      <c r="C165" s="283"/>
-      <c r="D165" s="287"/>
+      <c r="C165" s="219"/>
+      <c r="D165" s="223"/>
     </row>
     <row r="166" spans="1:4" s="175" customFormat="1">
-      <c r="A166" s="298"/>
+      <c r="A166" s="234"/>
       <c r="B166" s="198"/>
-      <c r="C166" s="283"/>
-      <c r="D166" s="287"/>
+      <c r="C166" s="219"/>
+      <c r="D166" s="223"/>
     </row>
     <row r="167" spans="1:4" s="175" customFormat="1">
-      <c r="A167" s="298"/>
+      <c r="A167" s="234"/>
       <c r="B167" s="198"/>
-      <c r="C167" s="283"/>
-      <c r="D167" s="287"/>
+      <c r="C167" s="219"/>
+      <c r="D167" s="223"/>
     </row>
     <row r="168" spans="1:4" s="175" customFormat="1">
-      <c r="A168" s="298"/>
+      <c r="A168" s="234"/>
       <c r="B168" s="198"/>
-      <c r="C168" s="283"/>
-      <c r="D168" s="287"/>
+      <c r="C168" s="219"/>
+      <c r="D168" s="223"/>
     </row>
     <row r="169" spans="1:4" s="175" customFormat="1">
-      <c r="A169" s="298"/>
+      <c r="A169" s="234"/>
       <c r="B169" s="198"/>
-      <c r="C169" s="283"/>
-      <c r="D169" s="287"/>
+      <c r="C169" s="219"/>
+      <c r="D169" s="223"/>
     </row>
     <row r="170" spans="1:4" s="175" customFormat="1">
-      <c r="A170" s="298"/>
+      <c r="A170" s="234"/>
       <c r="B170" s="198"/>
-      <c r="C170" s="283"/>
-      <c r="D170" s="287"/>
+      <c r="C170" s="219"/>
+      <c r="D170" s="223"/>
     </row>
     <row r="171" spans="1:4" s="175" customFormat="1">
-      <c r="A171" s="298"/>
+      <c r="A171" s="234"/>
       <c r="B171" s="198"/>
-      <c r="C171" s="283"/>
-      <c r="D171" s="287"/>
+      <c r="C171" s="219"/>
+      <c r="D171" s="223"/>
     </row>
     <row r="172" spans="1:4" s="175" customFormat="1">
-      <c r="A172" s="298"/>
+      <c r="A172" s="234"/>
       <c r="B172" s="198"/>
-      <c r="C172" s="283"/>
-      <c r="D172" s="287"/>
+      <c r="C172" s="219"/>
+      <c r="D172" s="223"/>
     </row>
     <row r="173" spans="1:4" s="175" customFormat="1">
-      <c r="A173" s="298"/>
+      <c r="A173" s="234"/>
       <c r="B173" s="198"/>
-      <c r="C173" s="283"/>
-      <c r="D173" s="287"/>
+      <c r="C173" s="219"/>
+      <c r="D173" s="223"/>
     </row>
     <row r="174" spans="1:4" s="175" customFormat="1">
-      <c r="A174" s="298"/>
+      <c r="A174" s="234"/>
       <c r="B174" s="198"/>
-      <c r="C174" s="283"/>
-      <c r="D174" s="287"/>
+      <c r="C174" s="219"/>
+      <c r="D174" s="223"/>
     </row>
     <row r="175" spans="1:4" s="175" customFormat="1">
-      <c r="A175" s="298"/>
+      <c r="A175" s="234"/>
       <c r="B175" s="198"/>
-      <c r="C175" s="283"/>
-      <c r="D175" s="287"/>
+      <c r="C175" s="219"/>
+      <c r="D175" s="223"/>
     </row>
     <row r="176" spans="1:4" s="175" customFormat="1">
-      <c r="A176" s="298"/>
+      <c r="A176" s="234"/>
       <c r="B176" s="198"/>
-      <c r="C176" s="283"/>
-      <c r="D176" s="287"/>
+      <c r="C176" s="219"/>
+      <c r="D176" s="223"/>
     </row>
     <row r="177" spans="1:4" s="175" customFormat="1">
-      <c r="A177" s="298"/>
+      <c r="A177" s="234"/>
       <c r="B177" s="198"/>
-      <c r="C177" s="283"/>
-      <c r="D177" s="287"/>
+      <c r="C177" s="219"/>
+      <c r="D177" s="223"/>
     </row>
     <row r="178" spans="1:4" s="175" customFormat="1">
-      <c r="A178" s="298"/>
+      <c r="A178" s="234"/>
       <c r="B178" s="198"/>
-      <c r="C178" s="283"/>
-      <c r="D178" s="287"/>
+      <c r="C178" s="219"/>
+      <c r="D178" s="223"/>
     </row>
     <row r="179" spans="1:4" s="175" customFormat="1">
-      <c r="A179" s="298"/>
+      <c r="A179" s="234"/>
       <c r="B179" s="198"/>
-      <c r="C179" s="283"/>
-      <c r="D179" s="287"/>
+      <c r="C179" s="219"/>
+      <c r="D179" s="223"/>
     </row>
     <row r="180" spans="1:4" s="175" customFormat="1">
-      <c r="A180" s="298"/>
+      <c r="A180" s="234"/>
       <c r="B180" s="198"/>
-      <c r="C180" s="283"/>
-      <c r="D180" s="287"/>
+      <c r="C180" s="219"/>
+      <c r="D180" s="223"/>
     </row>
     <row r="181" spans="1:4" s="175" customFormat="1">
-      <c r="A181" s="298"/>
+      <c r="A181" s="234"/>
       <c r="B181" s="198"/>
-      <c r="C181" s="283"/>
-      <c r="D181" s="287"/>
+      <c r="C181" s="219"/>
+      <c r="D181" s="223"/>
     </row>
     <row r="182" spans="1:4" s="175" customFormat="1">
-      <c r="A182" s="298"/>
+      <c r="A182" s="234"/>
       <c r="B182" s="198"/>
-      <c r="C182" s="283"/>
-      <c r="D182" s="287"/>
+      <c r="C182" s="219"/>
+      <c r="D182" s="223"/>
     </row>
     <row r="183" spans="1:4" s="175" customFormat="1">
-      <c r="A183" s="298"/>
+      <c r="A183" s="234"/>
       <c r="B183" s="198"/>
-      <c r="C183" s="283"/>
-      <c r="D183" s="287"/>
+      <c r="C183" s="219"/>
+      <c r="D183" s="223"/>
     </row>
     <row r="184" spans="1:4" s="175" customFormat="1">
-      <c r="A184" s="298"/>
+      <c r="A184" s="234"/>
       <c r="B184" s="198"/>
-      <c r="C184" s="283"/>
-      <c r="D184" s="287"/>
+      <c r="C184" s="219"/>
+      <c r="D184" s="223"/>
     </row>
     <row r="185" spans="1:4" s="175" customFormat="1">
-      <c r="A185" s="298"/>
+      <c r="A185" s="234"/>
       <c r="B185" s="198"/>
-      <c r="C185" s="283"/>
-      <c r="D185" s="287"/>
+      <c r="C185" s="219"/>
+      <c r="D185" s="223"/>
     </row>
     <row r="186" spans="1:4" s="175" customFormat="1">
-      <c r="A186" s="298"/>
+      <c r="A186" s="234"/>
       <c r="B186" s="198"/>
-      <c r="C186" s="283"/>
-      <c r="D186" s="287"/>
+      <c r="C186" s="219"/>
+      <c r="D186" s="223"/>
     </row>
     <row r="187" spans="1:4" s="175" customFormat="1">
-      <c r="A187" s="298"/>
+      <c r="A187" s="234"/>
       <c r="B187" s="198"/>
-      <c r="C187" s="283"/>
-      <c r="D187" s="287"/>
+      <c r="C187" s="219"/>
+      <c r="D187" s="223"/>
     </row>
     <row r="188" spans="1:4" s="175" customFormat="1">
-      <c r="A188" s="298"/>
+      <c r="A188" s="234"/>
       <c r="B188" s="198"/>
-      <c r="C188" s="283"/>
-      <c r="D188" s="287"/>
+      <c r="C188" s="219"/>
+      <c r="D188" s="223"/>
     </row>
     <row r="189" spans="1:4" s="175" customFormat="1">
-      <c r="A189" s="298"/>
+      <c r="A189" s="234"/>
       <c r="B189" s="198"/>
-      <c r="C189" s="283"/>
-      <c r="D189" s="287"/>
+      <c r="C189" s="219"/>
+      <c r="D189" s="223"/>
     </row>
     <row r="190" spans="1:4" s="175" customFormat="1">
-      <c r="A190" s="298"/>
+      <c r="A190" s="234"/>
       <c r="B190" s="198"/>
-      <c r="C190" s="283"/>
-      <c r="D190" s="287"/>
+      <c r="C190" s="219"/>
+      <c r="D190" s="223"/>
     </row>
     <row r="191" spans="1:4" s="175" customFormat="1">
-      <c r="A191" s="298"/>
+      <c r="A191" s="234"/>
       <c r="B191" s="198"/>
-      <c r="C191" s="283"/>
-      <c r="D191" s="287"/>
+      <c r="C191" s="219"/>
+      <c r="D191" s="223"/>
     </row>
     <row r="192" spans="1:4" s="175" customFormat="1">
-      <c r="A192" s="298"/>
+      <c r="A192" s="234"/>
       <c r="B192" s="198"/>
-      <c r="C192" s="283"/>
-      <c r="D192" s="287"/>
+      <c r="C192" s="219"/>
+      <c r="D192" s="223"/>
     </row>
     <row r="193" spans="1:4" s="175" customFormat="1">
-      <c r="A193" s="298"/>
+      <c r="A193" s="234"/>
       <c r="B193" s="198"/>
-      <c r="C193" s="283"/>
-      <c r="D193" s="287"/>
+      <c r="C193" s="219"/>
+      <c r="D193" s="223"/>
     </row>
     <row r="194" spans="1:4" s="175" customFormat="1">
-      <c r="A194" s="298"/>
+      <c r="A194" s="234"/>
       <c r="B194" s="198"/>
-      <c r="C194" s="283"/>
-      <c r="D194" s="287"/>
+      <c r="C194" s="219"/>
+      <c r="D194" s="223"/>
     </row>
     <row r="195" spans="1:4" s="175" customFormat="1">
-      <c r="A195" s="298"/>
+      <c r="A195" s="234"/>
       <c r="B195" s="198"/>
-      <c r="C195" s="283"/>
-      <c r="D195" s="287"/>
+      <c r="C195" s="219"/>
+      <c r="D195" s="223"/>
     </row>
     <row r="196" spans="1:4" s="175" customFormat="1">
-      <c r="A196" s="298"/>
+      <c r="A196" s="234"/>
       <c r="B196" s="198"/>
-      <c r="C196" s="283"/>
-      <c r="D196" s="287"/>
+      <c r="C196" s="219"/>
+      <c r="D196" s="223"/>
     </row>
     <row r="197" spans="1:4" s="175" customFormat="1">
-      <c r="A197" s="298"/>
+      <c r="A197" s="234"/>
       <c r="B197" s="198"/>
-      <c r="C197" s="283"/>
-      <c r="D197" s="287"/>
+      <c r="C197" s="219"/>
+      <c r="D197" s="223"/>
     </row>
     <row r="198" spans="1:4" s="175" customFormat="1">
-      <c r="A198" s="298"/>
+      <c r="A198" s="234"/>
       <c r="B198" s="198"/>
-      <c r="C198" s="283"/>
-      <c r="D198" s="287"/>
+      <c r="C198" s="219"/>
+      <c r="D198" s="223"/>
     </row>
     <row r="199" spans="1:4" s="175" customFormat="1">
-      <c r="A199" s="298"/>
+      <c r="A199" s="234"/>
       <c r="B199" s="198"/>
-      <c r="C199" s="283"/>
-      <c r="D199" s="287"/>
+      <c r="C199" s="219"/>
+      <c r="D199" s="223"/>
     </row>
     <row r="200" spans="1:4" s="175" customFormat="1">
-      <c r="A200" s="298"/>
+      <c r="A200" s="234"/>
       <c r="B200" s="198"/>
-      <c r="C200" s="283"/>
-      <c r="D200" s="287"/>
+      <c r="C200" s="219"/>
+      <c r="D200" s="223"/>
     </row>
     <row r="201" spans="1:4" s="175" customFormat="1">
-      <c r="A201" s="298"/>
+      <c r="A201" s="234"/>
       <c r="B201" s="198"/>
-      <c r="C201" s="283"/>
-      <c r="D201" s="287"/>
+      <c r="C201" s="219"/>
+      <c r="D201" s="223"/>
     </row>
     <row r="202" spans="1:4" s="175" customFormat="1">
-      <c r="A202" s="298"/>
+      <c r="A202" s="234"/>
       <c r="B202" s="198"/>
-      <c r="C202" s="283"/>
-      <c r="D202" s="287"/>
+      <c r="C202" s="219"/>
+      <c r="D202" s="223"/>
     </row>
     <row r="203" spans="1:4" s="175" customFormat="1">
-      <c r="A203" s="298"/>
+      <c r="A203" s="234"/>
       <c r="B203" s="198"/>
-      <c r="C203" s="283"/>
-      <c r="D203" s="287"/>
+      <c r="C203" s="219"/>
+      <c r="D203" s="223"/>
     </row>
     <row r="204" spans="1:4" s="175" customFormat="1">
-      <c r="A204" s="298"/>
+      <c r="A204" s="234"/>
       <c r="B204" s="198"/>
-      <c r="C204" s="283"/>
-      <c r="D204" s="287"/>
+      <c r="C204" s="219"/>
+      <c r="D204" s="223"/>
     </row>
     <row r="205" spans="1:4" s="175" customFormat="1">
-      <c r="A205" s="298"/>
+      <c r="A205" s="234"/>
       <c r="B205" s="198"/>
-      <c r="C205" s="283"/>
-      <c r="D205" s="287"/>
+      <c r="C205" s="219"/>
+      <c r="D205" s="223"/>
     </row>
     <row r="206" spans="1:4" s="175" customFormat="1">
-      <c r="A206" s="298"/>
+      <c r="A206" s="234"/>
       <c r="B206" s="198"/>
-      <c r="C206" s="283"/>
-      <c r="D206" s="287"/>
+      <c r="C206" s="219"/>
+      <c r="D206" s="223"/>
     </row>
     <row r="207" spans="1:4" s="175" customFormat="1">
-      <c r="A207" s="298"/>
+      <c r="A207" s="234"/>
       <c r="B207" s="198"/>
-      <c r="C207" s="283"/>
-      <c r="D207" s="287"/>
+      <c r="C207" s="219"/>
+      <c r="D207" s="223"/>
     </row>
     <row r="208" spans="1:4" s="175" customFormat="1">
-      <c r="A208" s="298"/>
+      <c r="A208" s="234"/>
       <c r="B208" s="198"/>
-      <c r="C208" s="283"/>
-      <c r="D208" s="287"/>
+      <c r="C208" s="219"/>
+      <c r="D208" s="223"/>
     </row>
     <row r="209" spans="1:4" s="175" customFormat="1">
-      <c r="A209" s="298"/>
+      <c r="A209" s="234"/>
       <c r="B209" s="198"/>
-      <c r="C209" s="283"/>
-      <c r="D209" s="287"/>
+      <c r="C209" s="219"/>
+      <c r="D209" s="223"/>
     </row>
     <row r="210" spans="1:4" s="175" customFormat="1">
-      <c r="A210" s="298"/>
+      <c r="A210" s="234"/>
       <c r="B210" s="198"/>
-      <c r="C210" s="283"/>
-      <c r="D210" s="287"/>
+      <c r="C210" s="219"/>
+      <c r="D210" s="223"/>
     </row>
     <row r="211" spans="1:4" s="175" customFormat="1">
-      <c r="A211" s="298"/>
+      <c r="A211" s="234"/>
       <c r="B211" s="198"/>
-      <c r="C211" s="283"/>
-      <c r="D211" s="287"/>
+      <c r="C211" s="219"/>
+      <c r="D211" s="223"/>
     </row>
     <row r="212" spans="1:4" s="175" customFormat="1">
-      <c r="A212" s="298"/>
+      <c r="A212" s="234"/>
       <c r="B212" s="198"/>
-      <c r="C212" s="283"/>
-      <c r="D212" s="287"/>
+      <c r="C212" s="219"/>
+      <c r="D212" s="223"/>
     </row>
     <row r="213" spans="1:4" s="175" customFormat="1">
-      <c r="A213" s="298"/>
+      <c r="A213" s="234"/>
       <c r="B213" s="198"/>
-      <c r="C213" s="283"/>
-      <c r="D213" s="287"/>
+      <c r="C213" s="219"/>
+      <c r="D213" s="223"/>
     </row>
     <row r="214" spans="1:4" s="175" customFormat="1">
-      <c r="A214" s="298"/>
+      <c r="A214" s="234"/>
       <c r="B214" s="198"/>
-      <c r="C214" s="283"/>
-      <c r="D214" s="287"/>
+      <c r="C214" s="219"/>
+      <c r="D214" s="223"/>
     </row>
     <row r="215" spans="1:4" s="175" customFormat="1">
-      <c r="A215" s="298"/>
+      <c r="A215" s="234"/>
       <c r="B215" s="198"/>
-      <c r="C215" s="283"/>
-      <c r="D215" s="287"/>
+      <c r="C215" s="219"/>
+      <c r="D215" s="223"/>
     </row>
     <row r="216" spans="1:4" s="175" customFormat="1">
-      <c r="A216" s="298"/>
+      <c r="A216" s="234"/>
       <c r="B216" s="198"/>
-      <c r="C216" s="283"/>
-      <c r="D216" s="287"/>
+      <c r="C216" s="219"/>
+      <c r="D216" s="223"/>
     </row>
     <row r="217" spans="1:4" s="175" customFormat="1">
-      <c r="A217" s="298"/>
+      <c r="A217" s="234"/>
       <c r="B217" s="198"/>
-      <c r="C217" s="283"/>
-      <c r="D217" s="287"/>
+      <c r="C217" s="219"/>
+      <c r="D217" s="223"/>
     </row>
     <row r="218" spans="1:4" s="175" customFormat="1">
-      <c r="A218" s="298"/>
+      <c r="A218" s="234"/>
       <c r="B218" s="198"/>
-      <c r="C218" s="283"/>
-      <c r="D218" s="287"/>
+      <c r="C218" s="219"/>
+      <c r="D218" s="223"/>
     </row>
     <row r="219" spans="1:4" s="175" customFormat="1">
-      <c r="A219" s="298"/>
+      <c r="A219" s="234"/>
       <c r="B219" s="198"/>
-      <c r="C219" s="283"/>
-      <c r="D219" s="287"/>
+      <c r="C219" s="219"/>
+      <c r="D219" s="223"/>
     </row>
     <row r="220" spans="1:4" s="175" customFormat="1">
-      <c r="A220" s="298"/>
+      <c r="A220" s="234"/>
       <c r="B220" s="198"/>
-      <c r="C220" s="283"/>
-      <c r="D220" s="287"/>
+      <c r="C220" s="219"/>
+      <c r="D220" s="223"/>
     </row>
     <row r="221" spans="1:4" s="175" customFormat="1">
-      <c r="A221" s="298"/>
+      <c r="A221" s="234"/>
       <c r="B221" s="198"/>
-      <c r="C221" s="283"/>
-      <c r="D221" s="287"/>
+      <c r="C221" s="219"/>
+      <c r="D221" s="223"/>
     </row>
     <row r="222" spans="1:4" s="175" customFormat="1">
-      <c r="A222" s="298"/>
+      <c r="A222" s="234"/>
       <c r="B222" s="198"/>
-      <c r="C222" s="283"/>
-      <c r="D222" s="287"/>
+      <c r="C222" s="219"/>
+      <c r="D222" s="223"/>
     </row>
     <row r="223" spans="1:4" s="175" customFormat="1">
-      <c r="A223" s="298"/>
+      <c r="A223" s="234"/>
       <c r="B223" s="198"/>
-      <c r="C223" s="283"/>
-      <c r="D223" s="287"/>
+      <c r="C223" s="219"/>
+      <c r="D223" s="223"/>
     </row>
     <row r="224" spans="1:4" s="175" customFormat="1">
-      <c r="A224" s="298"/>
+      <c r="A224" s="234"/>
       <c r="B224" s="198"/>
-      <c r="C224" s="283"/>
-      <c r="D224" s="287"/>
+      <c r="C224" s="219"/>
+      <c r="D224" s="223"/>
     </row>
     <row r="225" spans="1:4" s="175" customFormat="1">
-      <c r="A225" s="298"/>
+      <c r="A225" s="234"/>
       <c r="B225" s="198"/>
-      <c r="C225" s="283"/>
-      <c r="D225" s="287"/>
+      <c r="C225" s="219"/>
+      <c r="D225" s="223"/>
     </row>
     <row r="226" spans="1:4" s="175" customFormat="1">
-      <c r="A226" s="298"/>
+      <c r="A226" s="234"/>
       <c r="B226" s="198"/>
-      <c r="C226" s="283"/>
-      <c r="D226" s="287"/>
+      <c r="C226" s="219"/>
+      <c r="D226" s="223"/>
     </row>
     <row r="227" spans="1:4" s="175" customFormat="1">
-      <c r="A227" s="298"/>
+      <c r="A227" s="234"/>
       <c r="B227" s="198"/>
-      <c r="C227" s="283"/>
-      <c r="D227" s="287"/>
+      <c r="C227" s="219"/>
+      <c r="D227" s="223"/>
     </row>
     <row r="228" spans="1:4" s="175" customFormat="1">
-      <c r="A228" s="298"/>
+      <c r="A228" s="234"/>
       <c r="B228" s="198"/>
-      <c r="C228" s="283"/>
-      <c r="D228" s="287"/>
+      <c r="C228" s="219"/>
+      <c r="D228" s="223"/>
     </row>
     <row r="229" spans="1:4" s="175" customFormat="1">
-      <c r="A229" s="298"/>
+      <c r="A229" s="234"/>
       <c r="B229" s="198"/>
-      <c r="C229" s="283"/>
-      <c r="D229" s="287"/>
+      <c r="C229" s="219"/>
+      <c r="D229" s="223"/>
     </row>
     <row r="230" spans="1:4" s="175" customFormat="1">
-      <c r="A230" s="298"/>
+      <c r="A230" s="234"/>
       <c r="B230" s="198"/>
-      <c r="C230" s="283"/>
-      <c r="D230" s="287"/>
+      <c r="C230" s="219"/>
+      <c r="D230" s="223"/>
     </row>
     <row r="231" spans="1:4" s="175" customFormat="1">
-      <c r="A231" s="298"/>
+      <c r="A231" s="234"/>
       <c r="B231" s="198"/>
-      <c r="C231" s="283"/>
-      <c r="D231" s="287"/>
+      <c r="C231" s="219"/>
+      <c r="D231" s="223"/>
     </row>
     <row r="232" spans="1:4" s="175" customFormat="1">
-      <c r="A232" s="298"/>
+      <c r="A232" s="234"/>
       <c r="B232" s="198"/>
-      <c r="C232" s="283"/>
-      <c r="D232" s="287"/>
+      <c r="C232" s="219"/>
+      <c r="D232" s="223"/>
     </row>
     <row r="233" spans="1:4" s="175" customFormat="1">
-      <c r="A233" s="298"/>
+      <c r="A233" s="234"/>
       <c r="B233" s="198"/>
-      <c r="C233" s="283"/>
-      <c r="D233" s="287"/>
+      <c r="C233" s="219"/>
+      <c r="D233" s="223"/>
     </row>
     <row r="234" spans="1:4" s="175" customFormat="1">
-      <c r="A234" s="298"/>
+      <c r="A234" s="234"/>
       <c r="B234" s="198"/>
-      <c r="C234" s="283"/>
-      <c r="D234" s="287"/>
+      <c r="C234" s="219"/>
+      <c r="D234" s="223"/>
     </row>
     <row r="235" spans="1:4" s="175" customFormat="1">
-      <c r="A235" s="298"/>
+      <c r="A235" s="234"/>
       <c r="B235" s="198"/>
-      <c r="C235" s="283"/>
-      <c r="D235" s="287"/>
+      <c r="C235" s="219"/>
+      <c r="D235" s="223"/>
     </row>
     <row r="236" spans="1:4" s="175" customFormat="1">
-      <c r="A236" s="298"/>
+      <c r="A236" s="234"/>
       <c r="B236" s="198"/>
-      <c r="C236" s="283"/>
-      <c r="D236" s="287"/>
+      <c r="C236" s="219"/>
+      <c r="D236" s="223"/>
     </row>
     <row r="237" spans="1:4" s="175" customFormat="1">
-      <c r="A237" s="298"/>
+      <c r="A237" s="234"/>
       <c r="B237" s="198"/>
-      <c r="C237" s="283"/>
-      <c r="D237" s="287"/>
+      <c r="C237" s="219"/>
+      <c r="D237" s="223"/>
     </row>
     <row r="238" spans="1:4" s="175" customFormat="1">
-      <c r="A238" s="298"/>
+      <c r="A238" s="234"/>
       <c r="B238" s="198"/>
-      <c r="C238" s="283"/>
-      <c r="D238" s="287"/>
+      <c r="C238" s="219"/>
+      <c r="D238" s="223"/>
     </row>
     <row r="239" spans="1:4" s="175" customFormat="1">
-      <c r="A239" s="298"/>
+      <c r="A239" s="234"/>
       <c r="B239" s="198"/>
-      <c r="C239" s="283"/>
-      <c r="D239" s="287"/>
+      <c r="C239" s="219"/>
+      <c r="D239" s="223"/>
     </row>
     <row r="240" spans="1:4" s="175" customFormat="1">
-      <c r="A240" s="298"/>
+      <c r="A240" s="234"/>
       <c r="B240" s="198"/>
-      <c r="C240" s="283"/>
-      <c r="D240" s="287"/>
+      <c r="C240" s="219"/>
+      <c r="D240" s="223"/>
     </row>
     <row r="241" spans="1:4" s="175" customFormat="1">
-      <c r="A241" s="298"/>
+      <c r="A241" s="234"/>
       <c r="B241" s="198"/>
-      <c r="C241" s="283"/>
-      <c r="D241" s="287"/>
+      <c r="C241" s="219"/>
+      <c r="D241" s="223"/>
     </row>
     <row r="242" spans="1:4" s="175" customFormat="1">
-      <c r="A242" s="298"/>
+      <c r="A242" s="234"/>
       <c r="B242" s="198"/>
-      <c r="C242" s="283"/>
-      <c r="D242" s="287"/>
+      <c r="C242" s="219"/>
+      <c r="D242" s="223"/>
     </row>
     <row r="243" spans="1:4" s="175" customFormat="1">
-      <c r="A243" s="298"/>
+      <c r="A243" s="234"/>
       <c r="B243" s="198"/>
-      <c r="C243" s="283"/>
-      <c r="D243" s="287"/>
+      <c r="C243" s="219"/>
+      <c r="D243" s="223"/>
     </row>
     <row r="244" spans="1:4" s="175" customFormat="1">
-      <c r="A244" s="298"/>
+      <c r="A244" s="234"/>
       <c r="B244" s="198"/>
-      <c r="C244" s="283"/>
-      <c r="D244" s="287"/>
+      <c r="C244" s="219"/>
+      <c r="D244" s="223"/>
     </row>
     <row r="245" spans="1:4" s="175" customFormat="1">
-      <c r="A245" s="298"/>
+      <c r="A245" s="234"/>
       <c r="B245" s="198"/>
-      <c r="C245" s="283"/>
-      <c r="D245" s="287"/>
+      <c r="C245" s="219"/>
+      <c r="D245" s="223"/>
     </row>
     <row r="246" spans="1:4" s="175" customFormat="1">
-      <c r="A246" s="298"/>
+      <c r="A246" s="234"/>
       <c r="B246" s="198"/>
-      <c r="C246" s="283"/>
-      <c r="D246" s="287"/>
+      <c r="C246" s="219"/>
+      <c r="D246" s="223"/>
     </row>
     <row r="247" spans="1:4" s="175" customFormat="1">
-      <c r="A247" s="298"/>
+      <c r="A247" s="234"/>
       <c r="B247" s="198"/>
-      <c r="C247" s="283"/>
-      <c r="D247" s="287"/>
+      <c r="C247" s="219"/>
+      <c r="D247" s="223"/>
     </row>
     <row r="248" spans="1:4" s="175" customFormat="1">
-      <c r="A248" s="298"/>
+      <c r="A248" s="234"/>
       <c r="B248" s="198"/>
-      <c r="C248" s="283"/>
-      <c r="D248" s="287"/>
+      <c r="C248" s="219"/>
+      <c r="D248" s="223"/>
     </row>
     <row r="249" spans="1:4" s="175" customFormat="1">
-      <c r="A249" s="298"/>
+      <c r="A249" s="234"/>
       <c r="B249" s="198"/>
-      <c r="C249" s="283"/>
-      <c r="D249" s="287"/>
+      <c r="C249" s="219"/>
+      <c r="D249" s="223"/>
     </row>
     <row r="250" spans="1:4" s="175" customFormat="1">
-      <c r="A250" s="298"/>
+      <c r="A250" s="234"/>
       <c r="B250" s="198"/>
-      <c r="C250" s="283"/>
-      <c r="D250" s="287"/>
+      <c r="C250" s="219"/>
+      <c r="D250" s="223"/>
     </row>
     <row r="251" spans="1:4" s="175" customFormat="1">
-      <c r="A251" s="298"/>
+      <c r="A251" s="234"/>
       <c r="B251" s="198"/>
-      <c r="C251" s="283"/>
-      <c r="D251" s="287"/>
+      <c r="C251" s="219"/>
+      <c r="D251" s="223"/>
     </row>
     <row r="252" spans="1:4" s="175" customFormat="1">
-      <c r="A252" s="298"/>
+      <c r="A252" s="234"/>
       <c r="B252" s="198"/>
-      <c r="C252" s="283"/>
-      <c r="D252" s="287"/>
+      <c r="C252" s="219"/>
+      <c r="D252" s="223"/>
     </row>
     <row r="253" spans="1:4" s="175" customFormat="1">
-      <c r="A253" s="298"/>
+      <c r="A253" s="234"/>
       <c r="B253" s="198"/>
-      <c r="C253" s="283"/>
-      <c r="D253" s="287"/>
+      <c r="C253" s="219"/>
+      <c r="D253" s="223"/>
     </row>
     <row r="254" spans="1:4" s="175" customFormat="1">
-      <c r="A254" s="298"/>
+      <c r="A254" s="234"/>
       <c r="B254" s="198"/>
-      <c r="C254" s="283"/>
-      <c r="D254" s="287"/>
+      <c r="C254" s="219"/>
+      <c r="D254" s="223"/>
     </row>
     <row r="255" spans="1:4" s="175" customFormat="1">
-      <c r="A255" s="298"/>
+      <c r="A255" s="234"/>
       <c r="B255" s="198"/>
-      <c r="C255" s="283"/>
-      <c r="D255" s="287"/>
+      <c r="C255" s="219"/>
+      <c r="D255" s="223"/>
     </row>
     <row r="256" spans="1:4" s="175" customFormat="1">
-      <c r="A256" s="298"/>
+      <c r="A256" s="234"/>
       <c r="B256" s="198"/>
-      <c r="C256" s="283"/>
-      <c r="D256" s="287"/>
+      <c r="C256" s="219"/>
+      <c r="D256" s="223"/>
     </row>
     <row r="257" spans="1:4" s="175" customFormat="1">
-      <c r="A257" s="298"/>
+      <c r="A257" s="234"/>
       <c r="B257" s="198"/>
-      <c r="C257" s="283"/>
-      <c r="D257" s="287"/>
+      <c r="C257" s="219"/>
+      <c r="D257" s="223"/>
     </row>
     <row r="258" spans="1:4" s="175" customFormat="1">
-      <c r="A258" s="298"/>
+      <c r="A258" s="234"/>
       <c r="B258" s="198"/>
-      <c r="C258" s="283"/>
-      <c r="D258" s="287"/>
+      <c r="C258" s="219"/>
+      <c r="D258" s="223"/>
     </row>
     <row r="259" spans="1:4" s="175" customFormat="1">
-      <c r="A259" s="298"/>
+      <c r="A259" s="234"/>
       <c r="B259" s="198"/>
-      <c r="C259" s="283"/>
-      <c r="D259" s="287"/>
+      <c r="C259" s="219"/>
+      <c r="D259" s="223"/>
     </row>
     <row r="260" spans="1:4" s="175" customFormat="1">
-      <c r="A260" s="298"/>
+      <c r="A260" s="234"/>
       <c r="B260" s="198"/>
-      <c r="C260" s="283"/>
-      <c r="D260" s="287"/>
+      <c r="C260" s="219"/>
+      <c r="D260" s="223"/>
     </row>
     <row r="261" spans="1:4" s="175" customFormat="1">
-      <c r="A261" s="298"/>
+      <c r="A261" s="234"/>
       <c r="B261" s="198"/>
-      <c r="C261" s="283"/>
-      <c r="D261" s="287"/>
+      <c r="C261" s="219"/>
+      <c r="D261" s="223"/>
     </row>
     <row r="262" spans="1:4" s="175" customFormat="1">
-      <c r="A262" s="298"/>
+      <c r="A262" s="234"/>
       <c r="B262" s="198"/>
-      <c r="C262" s="283"/>
-      <c r="D262" s="287"/>
+      <c r="C262" s="219"/>
+      <c r="D262" s="223"/>
     </row>
     <row r="263" spans="1:4" s="175" customFormat="1">
-      <c r="A263" s="298"/>
+      <c r="A263" s="234"/>
       <c r="B263" s="198"/>
-      <c r="C263" s="283"/>
-      <c r="D263" s="287"/>
+      <c r="C263" s="219"/>
+      <c r="D263" s="223"/>
     </row>
     <row r="264" spans="1:4" s="175" customFormat="1">
-      <c r="A264" s="298"/>
+      <c r="A264" s="234"/>
       <c r="B264" s="198"/>
-      <c r="C264" s="283"/>
-      <c r="D264" s="287"/>
+      <c r="C264" s="219"/>
+      <c r="D264" s="223"/>
     </row>
     <row r="265" spans="1:4" s="175" customFormat="1">
-      <c r="A265" s="298"/>
+      <c r="A265" s="234"/>
       <c r="B265" s="198"/>
-      <c r="C265" s="283"/>
-      <c r="D265" s="287"/>
+      <c r="C265" s="219"/>
+      <c r="D265" s="223"/>
     </row>
     <row r="266" spans="1:4" s="175" customFormat="1">
-      <c r="A266" s="298"/>
+      <c r="A266" s="234"/>
       <c r="B266" s="198"/>
-      <c r="C266" s="283"/>
-      <c r="D266" s="287"/>
+      <c r="C266" s="219"/>
+      <c r="D266" s="223"/>
     </row>
     <row r="267" spans="1:4" s="175" customFormat="1">
-      <c r="A267" s="298"/>
+      <c r="A267" s="234"/>
       <c r="B267" s="198"/>
-      <c r="C267" s="283"/>
-      <c r="D267" s="287"/>
+      <c r="C267" s="219"/>
+      <c r="D267" s="223"/>
     </row>
     <row r="268" spans="1:4" s="175" customFormat="1">
-      <c r="A268" s="298"/>
+      <c r="A268" s="234"/>
       <c r="B268" s="198"/>
-      <c r="C268" s="283"/>
-      <c r="D268" s="287"/>
+      <c r="C268" s="219"/>
+      <c r="D268" s="223"/>
     </row>
     <row r="269" spans="1:4" s="175" customFormat="1">
-      <c r="A269" s="298"/>
+      <c r="A269" s="234"/>
       <c r="B269" s="198"/>
-      <c r="C269" s="283"/>
-      <c r="D269" s="287"/>
+      <c r="C269" s="219"/>
+      <c r="D269" s="223"/>
     </row>
     <row r="270" spans="1:4" s="175" customFormat="1">
-      <c r="A270" s="298"/>
+      <c r="A270" s="234"/>
       <c r="B270" s="198"/>
-      <c r="C270" s="283"/>
-      <c r="D270" s="287"/>
+      <c r="C270" s="219"/>
+      <c r="D270" s="223"/>
     </row>
     <row r="271" spans="1:4" s="175" customFormat="1">
-      <c r="A271" s="298"/>
+      <c r="A271" s="234"/>
       <c r="B271" s="198"/>
-      <c r="C271" s="283"/>
-      <c r="D271" s="287"/>
+      <c r="C271" s="219"/>
+      <c r="D271" s="223"/>
     </row>
     <row r="272" spans="1:4" s="175" customFormat="1">
-      <c r="A272" s="298"/>
+      <c r="A272" s="234"/>
       <c r="B272" s="198"/>
-      <c r="C272" s="283"/>
-      <c r="D272" s="287"/>
+      <c r="C272" s="219"/>
+      <c r="D272" s="223"/>
     </row>
     <row r="273" spans="1:4" s="175" customFormat="1">
-      <c r="A273" s="298"/>
+      <c r="A273" s="234"/>
       <c r="B273" s="198"/>
-      <c r="C273" s="283"/>
-      <c r="D273" s="287"/>
+      <c r="C273" s="219"/>
+      <c r="D273" s="223"/>
     </row>
     <row r="274" spans="1:4" s="175" customFormat="1">
-      <c r="A274" s="298"/>
+      <c r="A274" s="234"/>
       <c r="B274" s="198"/>
-      <c r="C274" s="283"/>
-      <c r="D274" s="287"/>
+      <c r="C274" s="219"/>
+      <c r="D274" s="223"/>
     </row>
     <row r="275" spans="1:4" s="175" customFormat="1">
-      <c r="A275" s="298"/>
+      <c r="A275" s="234"/>
       <c r="B275" s="198"/>
-      <c r="C275" s="283"/>
-      <c r="D275" s="287"/>
+      <c r="C275" s="219"/>
+      <c r="D275" s="223"/>
     </row>
     <row r="276" spans="1:4" s="175" customFormat="1">
-      <c r="A276" s="298"/>
+      <c r="A276" s="234"/>
       <c r="B276" s="198"/>
-      <c r="C276" s="283"/>
-      <c r="D276" s="287"/>
+      <c r="C276" s="219"/>
+      <c r="D276" s="223"/>
     </row>
     <row r="277" spans="1:4" s="175" customFormat="1">
-      <c r="A277" s="298"/>
+      <c r="A277" s="234"/>
       <c r="B277" s="198"/>
-      <c r="C277" s="283"/>
-      <c r="D277" s="287"/>
+      <c r="C277" s="219"/>
+      <c r="D277" s="223"/>
     </row>
     <row r="278" spans="1:4" s="175" customFormat="1">
-      <c r="A278" s="298"/>
+      <c r="A278" s="234"/>
       <c r="B278" s="198"/>
-      <c r="C278" s="283"/>
-      <c r="D278" s="287"/>
+      <c r="C278" s="219"/>
+      <c r="D278" s="223"/>
     </row>
     <row r="279" spans="1:4" s="175" customFormat="1">
-      <c r="A279" s="298"/>
+      <c r="A279" s="234"/>
       <c r="B279" s="198"/>
-      <c r="C279" s="283"/>
-      <c r="D279" s="287"/>
+      <c r="C279" s="219"/>
+      <c r="D279" s="223"/>
     </row>
     <row r="280" spans="1:4" s="175" customFormat="1">
-      <c r="A280" s="298"/>
+      <c r="A280" s="234"/>
       <c r="B280" s="198"/>
-      <c r="C280" s="283"/>
-      <c r="D280" s="287"/>
+      <c r="C280" s="219"/>
+      <c r="D280" s="223"/>
     </row>
     <row r="281" spans="1:4" s="175" customFormat="1">
-      <c r="A281" s="298"/>
+      <c r="A281" s="234"/>
       <c r="B281" s="198"/>
-      <c r="C281" s="283"/>
-      <c r="D281" s="287"/>
+      <c r="C281" s="219"/>
+      <c r="D281" s="223"/>
     </row>
     <row r="282" spans="1:4" s="175" customFormat="1">
-      <c r="A282" s="298"/>
+      <c r="A282" s="234"/>
       <c r="B282" s="198"/>
-      <c r="C282" s="283"/>
-      <c r="D282" s="287"/>
+      <c r="C282" s="219"/>
+      <c r="D282" s="223"/>
     </row>
     <row r="283" spans="1:4" s="175" customFormat="1">
-      <c r="A283" s="298"/>
+      <c r="A283" s="234"/>
       <c r="B283" s="198"/>
-      <c r="C283" s="283"/>
-      <c r="D283" s="287"/>
+      <c r="C283" s="219"/>
+      <c r="D283" s="223"/>
     </row>
     <row r="284" spans="1:4" s="175" customFormat="1">
-      <c r="A284" s="298"/>
+      <c r="A284" s="234"/>
       <c r="B284" s="198"/>
-      <c r="C284" s="283"/>
-      <c r="D284" s="287"/>
+      <c r="C284" s="219"/>
+      <c r="D284" s="223"/>
     </row>
     <row r="285" spans="1:4" s="175" customFormat="1">
-      <c r="A285" s="298"/>
+      <c r="A285" s="234"/>
       <c r="B285" s="198"/>
-      <c r="C285" s="283"/>
-      <c r="D285" s="287"/>
+      <c r="C285" s="219"/>
+      <c r="D285" s="223"/>
     </row>
     <row r="286" spans="1:4" s="175" customFormat="1">
-      <c r="A286" s="298"/>
+      <c r="A286" s="234"/>
       <c r="B286" s="198"/>
-      <c r="C286" s="283"/>
-      <c r="D286" s="287"/>
+      <c r="C286" s="219"/>
+      <c r="D286" s="223"/>
     </row>
     <row r="287" spans="1:4" s="175" customFormat="1">
-      <c r="A287" s="298"/>
+      <c r="A287" s="234"/>
       <c r="B287" s="198"/>
-      <c r="C287" s="283"/>
-      <c r="D287" s="287"/>
+      <c r="C287" s="219"/>
+      <c r="D287" s="223"/>
     </row>
     <row r="288" spans="1:4" s="175" customFormat="1">
-      <c r="A288" s="298"/>
+      <c r="A288" s="234"/>
       <c r="B288" s="198"/>
-      <c r="C288" s="283"/>
-      <c r="D288" s="287"/>
+      <c r="C288" s="219"/>
+      <c r="D288" s="223"/>
     </row>
     <row r="289" spans="1:4" s="175" customFormat="1">
-      <c r="A289" s="298"/>
+      <c r="A289" s="234"/>
       <c r="B289" s="198"/>
-      <c r="C289" s="283"/>
-      <c r="D289" s="287"/>
+      <c r="C289" s="219"/>
+      <c r="D289" s="223"/>
     </row>
     <row r="290" spans="1:4" s="175" customFormat="1">
-      <c r="A290" s="298"/>
+      <c r="A290" s="234"/>
       <c r="B290" s="198"/>
-      <c r="C290" s="283"/>
-      <c r="D290" s="287"/>
+      <c r="C290" s="219"/>
+      <c r="D290" s="223"/>
     </row>
     <row r="291" spans="1:4" s="175" customFormat="1">
-      <c r="A291" s="298"/>
+      <c r="A291" s="234"/>
       <c r="B291" s="198"/>
-      <c r="C291" s="283"/>
-      <c r="D291" s="287"/>
+      <c r="C291" s="219"/>
+      <c r="D291" s="223"/>
     </row>
     <row r="292" spans="1:4" s="175" customFormat="1">
-      <c r="A292" s="298"/>
+      <c r="A292" s="234"/>
       <c r="B292" s="198"/>
-      <c r="C292" s="283"/>
-      <c r="D292" s="287"/>
+      <c r="C292" s="219"/>
+      <c r="D292" s="223"/>
     </row>
     <row r="293" spans="1:4" s="175" customFormat="1">
-      <c r="A293" s="298"/>
+      <c r="A293" s="234"/>
       <c r="B293" s="198"/>
-      <c r="C293" s="283"/>
-      <c r="D293" s="287"/>
+      <c r="C293" s="219"/>
+      <c r="D293" s="223"/>
     </row>
     <row r="294" spans="1:4" s="175" customFormat="1">
-      <c r="A294" s="298"/>
+      <c r="A294" s="234"/>
       <c r="B294" s="198"/>
-      <c r="C294" s="283"/>
-      <c r="D294" s="287"/>
+      <c r="C294" s="219"/>
+      <c r="D294" s="223"/>
     </row>
     <row r="295" spans="1:4" s="175" customFormat="1">
-      <c r="A295" s="298"/>
+      <c r="A295" s="234"/>
       <c r="B295" s="198"/>
-      <c r="C295" s="283"/>
-      <c r="D295" s="287"/>
+      <c r="C295" s="219"/>
+      <c r="D295" s="223"/>
     </row>
     <row r="296" spans="1:4" s="175" customFormat="1">
-      <c r="A296" s="298"/>
+      <c r="A296" s="234"/>
       <c r="B296" s="198"/>
-      <c r="C296" s="283"/>
-      <c r="D296" s="287"/>
+      <c r="C296" s="219"/>
+      <c r="D296" s="223"/>
     </row>
     <row r="297" spans="1:4" s="175" customFormat="1">
-      <c r="A297" s="298"/>
+      <c r="A297" s="234"/>
       <c r="B297" s="198"/>
-      <c r="C297" s="283"/>
-      <c r="D297" s="287"/>
+      <c r="C297" s="219"/>
+      <c r="D297" s="223"/>
     </row>
     <row r="298" spans="1:4" s="175" customFormat="1">
-      <c r="A298" s="298"/>
+      <c r="A298" s="234"/>
       <c r="B298" s="198"/>
-      <c r="C298" s="283"/>
-      <c r="D298" s="287"/>
+      <c r="C298" s="219"/>
+      <c r="D298" s="223"/>
     </row>
     <row r="299" spans="1:4" s="175" customFormat="1">
-      <c r="A299" s="298"/>
+      <c r="A299" s="234"/>
       <c r="B299" s="198"/>
-      <c r="C299" s="283"/>
-      <c r="D299" s="287"/>
+      <c r="C299" s="219"/>
+      <c r="D299" s="223"/>
     </row>
     <row r="300" spans="1:4" s="175" customFormat="1">
-      <c r="A300" s="298"/>
+      <c r="A300" s="234"/>
       <c r="B300" s="198"/>
-      <c r="C300" s="283"/>
-      <c r="D300" s="287"/>
+      <c r="C300" s="219"/>
+      <c r="D300" s="223"/>
     </row>
     <row r="301" spans="1:4" s="175" customFormat="1">
-      <c r="A301" s="298"/>
+      <c r="A301" s="234"/>
       <c r="B301" s="198"/>
-      <c r="C301" s="283"/>
-      <c r="D301" s="287"/>
+      <c r="C301" s="219"/>
+      <c r="D301" s="223"/>
     </row>
     <row r="302" spans="1:4" s="175" customFormat="1">
-      <c r="A302" s="298"/>
+      <c r="A302" s="234"/>
       <c r="B302" s="198"/>
-      <c r="C302" s="283"/>
-      <c r="D302" s="287"/>
+      <c r="C302" s="219"/>
+      <c r="D302" s="223"/>
     </row>
     <row r="303" spans="1:4" s="175" customFormat="1">
-      <c r="A303" s="298"/>
+      <c r="A303" s="234"/>
       <c r="B303" s="198"/>
-      <c r="C303" s="283"/>
-      <c r="D303" s="287"/>
+      <c r="C303" s="219"/>
+      <c r="D303" s="223"/>
     </row>
     <row r="304" spans="1:4" s="175" customFormat="1">
-      <c r="A304" s="298"/>
+      <c r="A304" s="234"/>
       <c r="B304" s="198"/>
-      <c r="C304" s="283"/>
-      <c r="D304" s="287"/>
+      <c r="C304" s="219"/>
+      <c r="D304" s="223"/>
     </row>
     <row r="305" spans="1:4" s="175" customFormat="1">
-      <c r="A305" s="298"/>
+      <c r="A305" s="234"/>
       <c r="B305" s="198"/>
-      <c r="C305" s="283"/>
-      <c r="D305" s="287"/>
+      <c r="C305" s="219"/>
+      <c r="D305" s="223"/>
     </row>
     <row r="306" spans="1:4" s="175" customFormat="1">
-      <c r="A306" s="298"/>
+      <c r="A306" s="234"/>
       <c r="B306" s="198"/>
-      <c r="C306" s="283"/>
-      <c r="D306" s="287"/>
+      <c r="C306" s="219"/>
+      <c r="D306" s="223"/>
     </row>
     <row r="307" spans="1:4" s="175" customFormat="1">
-      <c r="A307" s="298"/>
+      <c r="A307" s="234"/>
       <c r="B307" s="198"/>
-      <c r="C307" s="283"/>
-      <c r="D307" s="287"/>
+      <c r="C307" s="219"/>
+      <c r="D307" s="223"/>
     </row>
     <row r="308" spans="1:4" s="175" customFormat="1">
-      <c r="A308" s="298"/>
+      <c r="A308" s="234"/>
       <c r="B308" s="198"/>
-      <c r="C308" s="283"/>
-      <c r="D308" s="287"/>
+      <c r="C308" s="219"/>
+      <c r="D308" s="223"/>
     </row>
     <row r="309" spans="1:4" s="175" customFormat="1">
-      <c r="A309" s="298"/>
+      <c r="A309" s="234"/>
       <c r="B309" s="198"/>
-      <c r="C309" s="283"/>
-      <c r="D309" s="287"/>
+      <c r="C309" s="219"/>
+      <c r="D309" s="223"/>
     </row>
     <row r="310" spans="1:4" s="175" customFormat="1">
-      <c r="A310" s="298"/>
+      <c r="A310" s="234"/>
       <c r="B310" s="198"/>
-      <c r="C310" s="283"/>
-      <c r="D310" s="287"/>
+      <c r="C310" s="219"/>
+      <c r="D310" s="223"/>
     </row>
     <row r="311" spans="1:4" s="175" customFormat="1">
-      <c r="A311" s="298"/>
+      <c r="A311" s="234"/>
       <c r="B311" s="198"/>
-      <c r="C311" s="283"/>
-      <c r="D311" s="287"/>
+      <c r="C311" s="219"/>
+      <c r="D311" s="223"/>
     </row>
     <row r="312" spans="1:4" s="175" customFormat="1">
-      <c r="A312" s="298"/>
+      <c r="A312" s="234"/>
       <c r="B312" s="198"/>
-      <c r="C312" s="283"/>
-      <c r="D312" s="287"/>
+      <c r="C312" s="219"/>
+      <c r="D312" s="223"/>
     </row>
     <row r="313" spans="1:4" s="175" customFormat="1">
-      <c r="A313" s="298"/>
+      <c r="A313" s="234"/>
       <c r="B313" s="198"/>
-      <c r="C313" s="283"/>
-      <c r="D313" s="287"/>
+      <c r="C313" s="219"/>
+      <c r="D313" s="223"/>
     </row>
     <row r="314" spans="1:4" s="175" customFormat="1">
-      <c r="A314" s="298"/>
+      <c r="A314" s="234"/>
       <c r="B314" s="198"/>
-      <c r="C314" s="283"/>
-      <c r="D314" s="287"/>
+      <c r="C314" s="219"/>
+      <c r="D314" s="223"/>
     </row>
     <row r="315" spans="1:4" s="175" customFormat="1">
-      <c r="A315" s="298"/>
+      <c r="A315" s="234"/>
       <c r="B315" s="198"/>
-      <c r="C315" s="283"/>
-      <c r="D315" s="287"/>
+      <c r="C315" s="219"/>
+      <c r="D315" s="223"/>
     </row>
     <row r="316" spans="1:4" s="175" customFormat="1">
-      <c r="A316" s="298"/>
+      <c r="A316" s="234"/>
       <c r="B316" s="198"/>
-      <c r="C316" s="283"/>
-      <c r="D316" s="287"/>
+      <c r="C316" s="219"/>
+      <c r="D316" s="223"/>
     </row>
     <row r="317" spans="1:4" s="175" customFormat="1">
-      <c r="A317" s="298"/>
+      <c r="A317" s="234"/>
       <c r="B317" s="198"/>
-      <c r="C317" s="283"/>
-      <c r="D317" s="287"/>
+      <c r="C317" s="219"/>
+      <c r="D317" s="223"/>
     </row>
     <row r="318" spans="1:4" s="175" customFormat="1">
-      <c r="A318" s="298"/>
+      <c r="A318" s="234"/>
       <c r="B318" s="198"/>
-      <c r="C318" s="283"/>
-      <c r="D318" s="287"/>
+      <c r="C318" s="219"/>
+      <c r="D318" s="223"/>
     </row>
     <row r="319" spans="1:4" s="175" customFormat="1">
-      <c r="A319" s="298"/>
+      <c r="A319" s="234"/>
       <c r="B319" s="198"/>
-      <c r="C319" s="283"/>
-      <c r="D319" s="287"/>
+      <c r="C319" s="219"/>
+      <c r="D319" s="223"/>
     </row>
     <row r="320" spans="1:4" s="175" customFormat="1">
-      <c r="A320" s="298"/>
+      <c r="A320" s="234"/>
       <c r="B320" s="198"/>
-      <c r="C320" s="283"/>
-      <c r="D320" s="287"/>
+      <c r="C320" s="219"/>
+      <c r="D320" s="223"/>
     </row>
     <row r="321" spans="1:4" s="175" customFormat="1">
-      <c r="A321" s="298"/>
+      <c r="A321" s="234"/>
       <c r="B321" s="198"/>
-      <c r="C321" s="283"/>
-      <c r="D321" s="287"/>
+      <c r="C321" s="219"/>
+      <c r="D321" s="223"/>
     </row>
     <row r="322" spans="1:4" s="175" customFormat="1">
-      <c r="A322" s="298"/>
+      <c r="A322" s="234"/>
       <c r="B322" s="198"/>
-      <c r="C322" s="283"/>
-      <c r="D322" s="287"/>
+      <c r="C322" s="219"/>
+      <c r="D322" s="223"/>
     </row>
     <row r="323" spans="1:4" s="175" customFormat="1">
-      <c r="A323" s="298"/>
+      <c r="A323" s="234"/>
       <c r="B323" s="198"/>
-      <c r="C323" s="283"/>
-      <c r="D323" s="287"/>
+      <c r="C323" s="219"/>
+      <c r="D323" s="223"/>
     </row>
     <row r="324" spans="1:4" s="175" customFormat="1">
-      <c r="A324" s="298"/>
+      <c r="A324" s="234"/>
       <c r="B324" s="198"/>
-      <c r="C324" s="283"/>
-      <c r="D324" s="287"/>
+      <c r="C324" s="219"/>
+      <c r="D324" s="223"/>
     </row>
     <row r="325" spans="1:4" s="175" customFormat="1">
-      <c r="A325" s="298"/>
+      <c r="A325" s="234"/>
       <c r="B325" s="198"/>
-      <c r="C325" s="283"/>
-      <c r="D325" s="287"/>
+      <c r="C325" s="219"/>
+      <c r="D325" s="223"/>
     </row>
     <row r="326" spans="1:4" s="175" customFormat="1">
-      <c r="A326" s="298"/>
+      <c r="A326" s="234"/>
       <c r="B326" s="198"/>
-      <c r="C326" s="283"/>
-      <c r="D326" s="287"/>
+      <c r="C326" s="219"/>
+      <c r="D326" s="223"/>
     </row>
     <row r="327" spans="1:4" s="175" customFormat="1">
-      <c r="A327" s="298"/>
+      <c r="A327" s="234"/>
       <c r="B327" s="198"/>
-      <c r="C327" s="283"/>
-      <c r="D327" s="287"/>
+      <c r="C327" s="219"/>
+      <c r="D327" s="223"/>
     </row>
     <row r="328" spans="1:4" s="175" customFormat="1">
-      <c r="A328" s="298"/>
+      <c r="A328" s="234"/>
       <c r="B328" s="198"/>
-      <c r="C328" s="283"/>
-      <c r="D328" s="287"/>
+      <c r="C328" s="219"/>
+      <c r="D328" s="223"/>
     </row>
     <row r="329" spans="1:4" s="175" customFormat="1">
-      <c r="A329" s="298"/>
+      <c r="A329" s="234"/>
       <c r="B329" s="198"/>
-      <c r="C329" s="283"/>
-      <c r="D329" s="287"/>
+      <c r="C329" s="219"/>
+      <c r="D329" s="223"/>
     </row>
     <row r="330" spans="1:4" s="175" customFormat="1">
-      <c r="A330" s="298"/>
+      <c r="A330" s="234"/>
       <c r="B330" s="198"/>
-      <c r="C330" s="283"/>
-      <c r="D330" s="287"/>
+      <c r="C330" s="219"/>
+      <c r="D330" s="223"/>
     </row>
     <row r="331" spans="1:4" s="175" customFormat="1">
-      <c r="A331" s="298"/>
+      <c r="A331" s="234"/>
       <c r="B331" s="198"/>
-      <c r="C331" s="283"/>
-      <c r="D331" s="287"/>
+      <c r="C331" s="219"/>
+      <c r="D331" s="223"/>
     </row>
     <row r="332" spans="1:4" s="175" customFormat="1">
-      <c r="A332" s="298"/>
+      <c r="A332" s="234"/>
       <c r="B332" s="198"/>
-      <c r="C332" s="283"/>
-      <c r="D332" s="287"/>
+      <c r="C332" s="219"/>
+      <c r="D332" s="223"/>
     </row>
     <row r="333" spans="1:4" s="175" customFormat="1">
-      <c r="A333" s="298"/>
+      <c r="A333" s="234"/>
       <c r="B333" s="198"/>
-      <c r="C333" s="283"/>
-      <c r="D333" s="287"/>
+      <c r="C333" s="219"/>
+      <c r="D333" s="223"/>
     </row>
     <row r="334" spans="1:4" s="175" customFormat="1">
-      <c r="A334" s="298"/>
+      <c r="A334" s="234"/>
       <c r="B334" s="198"/>
-      <c r="C334" s="283"/>
-      <c r="D334" s="287"/>
+      <c r="C334" s="219"/>
+      <c r="D334" s="223"/>
     </row>
     <row r="335" spans="1:4" s="175" customFormat="1">
-      <c r="A335" s="298"/>
+      <c r="A335" s="234"/>
       <c r="B335" s="198"/>
-      <c r="C335" s="283"/>
-      <c r="D335" s="287"/>
+      <c r="C335" s="219"/>
+      <c r="D335" s="223"/>
     </row>
     <row r="336" spans="1:4" s="175" customFormat="1">
-      <c r="A336" s="298"/>
+      <c r="A336" s="234"/>
       <c r="B336" s="198"/>
-      <c r="C336" s="283"/>
-      <c r="D336" s="287"/>
+      <c r="C336" s="219"/>
+      <c r="D336" s="223"/>
     </row>
     <row r="337" spans="1:4" s="175" customFormat="1">
-      <c r="A337" s="298"/>
+      <c r="A337" s="234"/>
       <c r="B337" s="198"/>
-      <c r="C337" s="283"/>
-      <c r="D337" s="287"/>
+      <c r="C337" s="219"/>
+      <c r="D337" s="223"/>
     </row>
     <row r="338" spans="1:4" s="175" customFormat="1">
-      <c r="A338" s="298"/>
+      <c r="A338" s="234"/>
       <c r="B338" s="198"/>
-      <c r="C338" s="283"/>
-      <c r="D338" s="287"/>
+      <c r="C338" s="219"/>
+      <c r="D338" s="223"/>
     </row>
     <row r="339" spans="1:4" s="175" customFormat="1">
-      <c r="A339" s="298"/>
+      <c r="A339" s="234"/>
       <c r="B339" s="198"/>
-      <c r="C339" s="283"/>
-      <c r="D339" s="287"/>
+      <c r="C339" s="219"/>
+      <c r="D339" s="223"/>
     </row>
     <row r="340" spans="1:4" s="175" customFormat="1">
-      <c r="A340" s="298"/>
+      <c r="A340" s="234"/>
       <c r="B340" s="198"/>
-      <c r="C340" s="283"/>
-      <c r="D340" s="287"/>
+      <c r="C340" s="219"/>
+      <c r="D340" s="223"/>
     </row>
     <row r="341" spans="1:4" s="175" customFormat="1">
-      <c r="A341" s="298"/>
+      <c r="A341" s="234"/>
       <c r="B341" s="198"/>
-      <c r="C341" s="283"/>
-      <c r="D341" s="287"/>
+      <c r="C341" s="219"/>
+      <c r="D341" s="223"/>
     </row>
     <row r="342" spans="1:4" s="175" customFormat="1">
-      <c r="A342" s="298"/>
+      <c r="A342" s="234"/>
       <c r="B342" s="198"/>
-      <c r="C342" s="283"/>
-      <c r="D342" s="287"/>
+      <c r="C342" s="219"/>
+      <c r="D342" s="223"/>
     </row>
     <row r="343" spans="1:4" s="175" customFormat="1">
-      <c r="A343" s="298"/>
+      <c r="A343" s="234"/>
       <c r="B343" s="198"/>
-      <c r="C343" s="283"/>
-      <c r="D343" s="287"/>
+      <c r="C343" s="219"/>
+      <c r="D343" s="223"/>
     </row>
     <row r="344" spans="1:4" s="175" customFormat="1">
-      <c r="A344" s="298"/>
+      <c r="A344" s="234"/>
       <c r="B344" s="198"/>
-      <c r="C344" s="283"/>
-      <c r="D344" s="287"/>
+      <c r="C344" s="219"/>
+      <c r="D344" s="223"/>
     </row>
     <row r="345" spans="1:4" s="175" customFormat="1">
-      <c r="A345" s="298"/>
+      <c r="A345" s="234"/>
       <c r="B345" s="198"/>
-      <c r="C345" s="283"/>
-      <c r="D345" s="287"/>
+      <c r="C345" s="219"/>
+      <c r="D345" s="223"/>
     </row>
     <row r="346" spans="1:4" s="175" customFormat="1">
-      <c r="A346" s="298"/>
+      <c r="A346" s="234"/>
       <c r="B346" s="198"/>
-      <c r="C346" s="283"/>
-      <c r="D346" s="287"/>
+      <c r="C346" s="219"/>
+      <c r="D346" s="223"/>
     </row>
     <row r="347" spans="1:4" s="175" customFormat="1">
-      <c r="A347" s="298"/>
+      <c r="A347" s="234"/>
       <c r="B347" s="198"/>
-      <c r="C347" s="283"/>
-      <c r="D347" s="287"/>
+      <c r="C347" s="219"/>
+      <c r="D347" s="223"/>
     </row>
     <row r="348" spans="1:4" s="175" customFormat="1">
-      <c r="A348" s="298"/>
+      <c r="A348" s="234"/>
       <c r="B348" s="198"/>
-      <c r="C348" s="283"/>
-      <c r="D348" s="287"/>
+      <c r="C348" s="219"/>
+      <c r="D348" s="223"/>
     </row>
     <row r="349" spans="1:4" s="175" customFormat="1">
-      <c r="A349" s="298"/>
+      <c r="A349" s="234"/>
       <c r="B349" s="198"/>
-      <c r="C349" s="283"/>
-      <c r="D349" s="287"/>
+      <c r="C349" s="219"/>
+      <c r="D349" s="223"/>
     </row>
     <row r="350" spans="1:4" s="175" customFormat="1">
-      <c r="A350" s="298"/>
+      <c r="A350" s="234"/>
       <c r="B350" s="198"/>
-      <c r="C350" s="283"/>
-      <c r="D350" s="287"/>
+      <c r="C350" s="219"/>
+      <c r="D350" s="223"/>
     </row>
     <row r="351" spans="1:4" s="175" customFormat="1">
-      <c r="A351" s="298"/>
+      <c r="A351" s="234"/>
       <c r="B351" s="198"/>
-      <c r="C351" s="283"/>
-      <c r="D351" s="287"/>
+      <c r="C351" s="219"/>
+      <c r="D351" s="223"/>
     </row>
     <row r="352" spans="1:4" s="175" customFormat="1">
-      <c r="A352" s="298"/>
+      <c r="A352" s="234"/>
       <c r="B352" s="198"/>
-      <c r="C352" s="283"/>
-      <c r="D352" s="287"/>
+      <c r="C352" s="219"/>
+      <c r="D352" s="223"/>
     </row>
     <row r="353" spans="1:4" s="175" customFormat="1">
-      <c r="A353" s="298"/>
+      <c r="A353" s="234"/>
       <c r="B353" s="198"/>
-      <c r="C353" s="283"/>
-      <c r="D353" s="287"/>
+      <c r="C353" s="219"/>
+      <c r="D353" s="223"/>
     </row>
     <row r="354" spans="1:4" s="175" customFormat="1">
-      <c r="A354" s="298"/>
+      <c r="A354" s="234"/>
       <c r="B354" s="198"/>
-      <c r="C354" s="283"/>
-      <c r="D354" s="287"/>
+      <c r="C354" s="219"/>
+      <c r="D354" s="223"/>
     </row>
     <row r="355" spans="1:4" s="175" customFormat="1">
-      <c r="A355" s="298"/>
+      <c r="A355" s="234"/>
       <c r="B355" s="198"/>
-      <c r="C355" s="283"/>
-      <c r="D355" s="287"/>
+      <c r="C355" s="219"/>
+      <c r="D355" s="223"/>
     </row>
     <row r="356" spans="1:4" s="175" customFormat="1">
-      <c r="A356" s="298"/>
+      <c r="A356" s="234"/>
       <c r="B356" s="198"/>
-      <c r="C356" s="283"/>
-      <c r="D356" s="287"/>
+      <c r="C356" s="219"/>
+      <c r="D356" s="223"/>
     </row>
     <row r="357" spans="1:4" s="175" customFormat="1">
-      <c r="A357" s="298"/>
+      <c r="A357" s="234"/>
       <c r="B357" s="198"/>
-      <c r="C357" s="283"/>
-      <c r="D357" s="287"/>
+      <c r="C357" s="219"/>
+      <c r="D357" s="223"/>
     </row>
     <row r="358" spans="1:4" s="175" customFormat="1">
-      <c r="A358" s="298"/>
+      <c r="A358" s="234"/>
       <c r="B358" s="198"/>
-      <c r="C358" s="283"/>
-      <c r="D358" s="287"/>
+      <c r="C358" s="219"/>
+      <c r="D358" s="223"/>
     </row>
     <row r="359" spans="1:4" s="175" customFormat="1">
-      <c r="A359" s="298"/>
+      <c r="A359" s="234"/>
       <c r="B359" s="198"/>
-      <c r="C359" s="283"/>
-      <c r="D359" s="287"/>
+      <c r="C359" s="219"/>
+      <c r="D359" s="223"/>
     </row>
     <row r="360" spans="1:4" s="175" customFormat="1">
-      <c r="A360" s="298"/>
+      <c r="A360" s="234"/>
       <c r="B360" s="198"/>
-      <c r="C360" s="283"/>
-      <c r="D360" s="287"/>
+      <c r="C360" s="219"/>
+      <c r="D360" s="223"/>
     </row>
     <row r="361" spans="1:4" s="175" customFormat="1">
-      <c r="A361" s="298"/>
+      <c r="A361" s="234"/>
       <c r="B361" s="198"/>
-      <c r="C361" s="283"/>
-      <c r="D361" s="287"/>
+      <c r="C361" s="219"/>
+      <c r="D361" s="223"/>
     </row>
     <row r="362" spans="1:4" s="175" customFormat="1">
-      <c r="A362" s="298"/>
+      <c r="A362" s="234"/>
       <c r="B362" s="198"/>
-      <c r="C362" s="283"/>
-      <c r="D362" s="287"/>
+      <c r="C362" s="219"/>
+      <c r="D362" s="223"/>
     </row>
     <row r="363" spans="1:4" s="175" customFormat="1">
-      <c r="A363" s="298"/>
+      <c r="A363" s="234"/>
       <c r="B363" s="198"/>
-      <c r="C363" s="283"/>
-      <c r="D363" s="287"/>
+      <c r="C363" s="219"/>
+      <c r="D363" s="223"/>
     </row>
     <row r="364" spans="1:4" s="175" customFormat="1">
-      <c r="A364" s="298"/>
+      <c r="A364" s="234"/>
       <c r="B364" s="198"/>
-      <c r="C364" s="283"/>
-      <c r="D364" s="287"/>
+      <c r="C364" s="219"/>
+      <c r="D364" s="223"/>
     </row>
     <row r="365" spans="1:4" s="175" customFormat="1">
-      <c r="A365" s="298"/>
+      <c r="A365" s="234"/>
       <c r="B365" s="198"/>
-      <c r="C365" s="283"/>
-      <c r="D365" s="287"/>
+      <c r="C365" s="219"/>
+      <c r="D365" s="223"/>
     </row>
     <row r="366" spans="1:4" s="175" customFormat="1">
-      <c r="A366" s="298"/>
+      <c r="A366" s="234"/>
       <c r="B366" s="198"/>
-      <c r="C366" s="283"/>
-      <c r="D366" s="287"/>
+      <c r="C366" s="219"/>
+      <c r="D366" s="223"/>
     </row>
     <row r="367" spans="1:4" s="175" customFormat="1">
-      <c r="A367" s="298"/>
+      <c r="A367" s="234"/>
       <c r="B367" s="198"/>
-      <c r="C367" s="283"/>
-      <c r="D367" s="287"/>
+      <c r="C367" s="219"/>
+      <c r="D367" s="223"/>
     </row>
     <row r="368" spans="1:4" s="175" customFormat="1">
-      <c r="A368" s="298"/>
+      <c r="A368" s="234"/>
       <c r="B368" s="198"/>
-      <c r="C368" s="283"/>
-      <c r="D368" s="287"/>
+      <c r="C368" s="219"/>
+      <c r="D368" s="223"/>
     </row>
     <row r="369" spans="1:4" s="175" customFormat="1">
-      <c r="A369" s="298"/>
+      <c r="A369" s="234"/>
       <c r="B369" s="198"/>
-      <c r="C369" s="283"/>
-      <c r="D369" s="287"/>
+      <c r="C369" s="219"/>
+      <c r="D369" s="223"/>
     </row>
     <row r="370" spans="1:4" s="175" customFormat="1">
-      <c r="A370" s="298"/>
+      <c r="A370" s="234"/>
       <c r="B370" s="198"/>
-      <c r="C370" s="283"/>
-      <c r="D370" s="287"/>
+      <c r="C370" s="219"/>
+      <c r="D370" s="223"/>
     </row>
     <row r="371" spans="1:4" s="175" customFormat="1">
-      <c r="A371" s="298"/>
+      <c r="A371" s="234"/>
       <c r="B371" s="198"/>
-      <c r="C371" s="283"/>
-      <c r="D371" s="287"/>
+      <c r="C371" s="219"/>
+      <c r="D371" s="223"/>
     </row>
     <row r="372" spans="1:4" s="175" customFormat="1">
-      <c r="A372" s="298"/>
+      <c r="A372" s="234"/>
       <c r="B372" s="198"/>
-      <c r="C372" s="283"/>
-      <c r="D372" s="287"/>
+      <c r="C372" s="219"/>
+      <c r="D372" s="223"/>
     </row>
     <row r="373" spans="1:4" s="175" customFormat="1">
-      <c r="A373" s="298"/>
+      <c r="A373" s="234"/>
       <c r="B373" s="198"/>
-      <c r="C373" s="283"/>
-      <c r="D373" s="287"/>
+      <c r="C373" s="219"/>
+      <c r="D373" s="223"/>
     </row>
     <row r="374" spans="1:4" s="175" customFormat="1">
-      <c r="A374" s="298"/>
+      <c r="A374" s="234"/>
       <c r="B374" s="198"/>
-      <c r="C374" s="283"/>
-      <c r="D374" s="287"/>
+      <c r="C374" s="219"/>
+      <c r="D374" s="223"/>
     </row>
     <row r="375" spans="1:4" s="175" customFormat="1">
-      <c r="A375" s="298"/>
+      <c r="A375" s="234"/>
       <c r="B375" s="198"/>
-      <c r="C375" s="283"/>
-      <c r="D375" s="287"/>
+      <c r="C375" s="219"/>
+      <c r="D375" s="223"/>
     </row>
     <row r="376" spans="1:4" s="175" customFormat="1">
-      <c r="A376" s="298"/>
+      <c r="A376" s="234"/>
       <c r="B376" s="198"/>
-      <c r="C376" s="283"/>
-      <c r="D376" s="287"/>
+      <c r="C376" s="219"/>
+      <c r="D376" s="223"/>
     </row>
     <row r="377" spans="1:4" s="175" customFormat="1">
-      <c r="A377" s="298"/>
+      <c r="A377" s="234"/>
       <c r="B377" s="198"/>
-      <c r="C377" s="283"/>
-      <c r="D377" s="287"/>
+      <c r="C377" s="219"/>
+      <c r="D377" s="223"/>
     </row>
     <row r="378" spans="1:4" s="175" customFormat="1">
-      <c r="A378" s="298"/>
+      <c r="A378" s="234"/>
       <c r="B378" s="198"/>
-      <c r="C378" s="283"/>
-      <c r="D378" s="287"/>
+      <c r="C378" s="219"/>
+      <c r="D378" s="223"/>
     </row>
     <row r="379" spans="1:4" s="175" customFormat="1">
-      <c r="A379" s="298"/>
+      <c r="A379" s="234"/>
       <c r="B379" s="198"/>
-      <c r="C379" s="283"/>
-      <c r="D379" s="287"/>
+      <c r="C379" s="219"/>
+      <c r="D379" s="223"/>
     </row>
     <row r="380" spans="1:4" s="175" customFormat="1">
-      <c r="A380" s="298"/>
+      <c r="A380" s="234"/>
       <c r="B380" s="198"/>
-      <c r="C380" s="283"/>
-      <c r="D380" s="287"/>
+      <c r="C380" s="219"/>
+      <c r="D380" s="223"/>
     </row>
     <row r="381" spans="1:4" s="175" customFormat="1">
-      <c r="A381" s="298"/>
+      <c r="A381" s="234"/>
       <c r="B381" s="198"/>
-      <c r="C381" s="283"/>
-      <c r="D381" s="287"/>
+      <c r="C381" s="219"/>
+      <c r="D381" s="223"/>
     </row>
     <row r="382" spans="1:4" s="175" customFormat="1">
-      <c r="A382" s="298"/>
+      <c r="A382" s="234"/>
       <c r="B382" s="198"/>
-      <c r="C382" s="283"/>
-      <c r="D382" s="287"/>
+      <c r="C382" s="219"/>
+      <c r="D382" s="223"/>
     </row>
     <row r="383" spans="1:4" s="175" customFormat="1">
-      <c r="A383" s="298"/>
+      <c r="A383" s="234"/>
       <c r="B383" s="198"/>
-      <c r="C383" s="283"/>
-      <c r="D383" s="287"/>
+      <c r="C383" s="219"/>
+      <c r="D383" s="223"/>
     </row>
     <row r="384" spans="1:4" s="175" customFormat="1">
-      <c r="A384" s="298"/>
+      <c r="A384" s="234"/>
       <c r="B384" s="198"/>
-      <c r="C384" s="283"/>
-      <c r="D384" s="287"/>
+      <c r="C384" s="219"/>
+      <c r="D384" s="223"/>
     </row>
     <row r="385" spans="1:4" s="175" customFormat="1">
-      <c r="A385" s="298"/>
+      <c r="A385" s="234"/>
       <c r="B385" s="198"/>
-      <c r="C385" s="283"/>
-      <c r="D385" s="287"/>
+      <c r="C385" s="219"/>
+      <c r="D385" s="223"/>
     </row>
     <row r="386" spans="1:4" s="175" customFormat="1">
-      <c r="A386" s="298"/>
+      <c r="A386" s="234"/>
       <c r="B386" s="198"/>
-      <c r="C386" s="283"/>
-      <c r="D386" s="287"/>
+      <c r="C386" s="219"/>
+      <c r="D386" s="223"/>
     </row>
     <row r="387" spans="1:4" s="175" customFormat="1">
-      <c r="A387" s="298"/>
+      <c r="A387" s="234"/>
       <c r="B387" s="198"/>
-      <c r="C387" s="283"/>
-      <c r="D387" s="287"/>
+      <c r="C387" s="219"/>
+      <c r="D387" s="223"/>
     </row>
     <row r="388" spans="1:4" s="175" customFormat="1">
-      <c r="A388" s="298"/>
+      <c r="A388" s="234"/>
       <c r="B388" s="198"/>
-      <c r="C388" s="283"/>
-      <c r="D388" s="287"/>
+      <c r="C388" s="219"/>
+      <c r="D388" s="223"/>
     </row>
     <row r="389" spans="1:4" s="175" customFormat="1">
-      <c r="A389" s="298"/>
+      <c r="A389" s="234"/>
       <c r="B389" s="198"/>
-      <c r="C389" s="283"/>
-      <c r="D389" s="287"/>
+      <c r="C389" s="219"/>
+      <c r="D389" s="223"/>
     </row>
     <row r="390" spans="1:4" s="175" customFormat="1">
-      <c r="A390" s="298"/>
+      <c r="A390" s="234"/>
       <c r="B390" s="198"/>
-      <c r="C390" s="283"/>
-      <c r="D390" s="287"/>
+      <c r="C390" s="219"/>
+      <c r="D390" s="223"/>
     </row>
     <row r="391" spans="1:4" s="175" customFormat="1">
-      <c r="A391" s="298"/>
+      <c r="A391" s="234"/>
       <c r="B391" s="198"/>
-      <c r="C391" s="283"/>
-      <c r="D391" s="287"/>
+      <c r="C391" s="219"/>
+      <c r="D391" s="223"/>
     </row>
     <row r="392" spans="1:4" s="175" customFormat="1">
-      <c r="A392" s="298"/>
+      <c r="A392" s="234"/>
       <c r="B392" s="198"/>
-      <c r="C392" s="283"/>
-      <c r="D392" s="287"/>
+      <c r="C392" s="219"/>
+      <c r="D392" s="223"/>
     </row>
     <row r="393" spans="1:4" s="175" customFormat="1">
-      <c r="A393" s="298"/>
+      <c r="A393" s="234"/>
       <c r="B393" s="198"/>
-      <c r="C393" s="283"/>
-      <c r="D393" s="287"/>
+      <c r="C393" s="219"/>
+      <c r="D393" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -9946,10 +9952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="235"/>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="A1" s="275"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9958,13 +9964,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="271"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9973,9 +9979,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="271"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9986,11 +9992,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="273" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10004,11 +10010,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10022,11 +10028,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="274" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10037,11 +10043,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10053,11 +10059,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="239">
+      <c r="B8" s="277">
         <v>40850</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -10200,11 +10206,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="247" t="s">
+      <c r="F16" s="279" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="248"/>
-      <c r="H16" s="249"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="281"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -10238,11 +10244,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="245"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="284"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10521,11 +10527,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A29" s="77"/>
-      <c r="B29" s="243" t="s">
+      <c r="B29" s="282" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="244"/>
-      <c r="D29" s="245"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="284"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10674,11 +10680,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A35" s="77"/>
-      <c r="B35" s="243" t="s">
+      <c r="B35" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="245"/>
+      <c r="C35" s="283"/>
+      <c r="D35" s="284"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -10715,11 +10721,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A37" s="77"/>
-      <c r="B37" s="243" t="s">
+      <c r="B37" s="282" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="244"/>
-      <c r="D37" s="245"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="284"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -10980,11 +10986,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A47" s="77"/>
-      <c r="B47" s="243" t="s">
+      <c r="B47" s="282" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="244"/>
-      <c r="D47" s="245"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="284"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11105,11 +11111,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A52" s="77"/>
-      <c r="B52" s="243" t="s">
+      <c r="B52" s="282" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="245"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="284"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11202,11 +11208,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A56" s="77"/>
-      <c r="B56" s="243" t="s">
+      <c r="B56" s="282" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="244"/>
-      <c r="D56" s="245"/>
+      <c r="C56" s="283"/>
+      <c r="D56" s="284"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -11523,11 +11529,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A68" s="77"/>
-      <c r="B68" s="243" t="s">
+      <c r="B68" s="282" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="244"/>
-      <c r="D68" s="245"/>
+      <c r="C68" s="283"/>
+      <c r="D68" s="284"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11620,11 +11626,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A72" s="77"/>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="282" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245"/>
+      <c r="C72" s="283"/>
+      <c r="D72" s="284"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -11717,11 +11723,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="243" t="s">
+      <c r="B76" s="282" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="244"/>
-      <c r="D76" s="245"/>
+      <c r="C76" s="283"/>
+      <c r="D76" s="284"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -11786,11 +11792,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="243" t="s">
+      <c r="B79" s="282" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="244"/>
-      <c r="D79" s="245"/>
+      <c r="C79" s="283"/>
+      <c r="D79" s="284"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -11939,17 +11945,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -11960,6 +11955,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -11997,10 +12003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="235"/>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="A1" s="275"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -12009,13 +12015,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="271"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12024,9 +12030,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="271"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12037,11 +12043,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="273" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12055,11 +12061,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12073,11 +12079,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="274" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -12088,11 +12094,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -12104,11 +12110,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="239">
+      <c r="B8" s="277">
         <v>40850</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12251,11 +12257,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="247" t="s">
+      <c r="F16" s="279" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="248"/>
-      <c r="H16" s="249"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="281"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -12289,11 +12295,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="245"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="284"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -12574,11 +12580,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A29" s="77"/>
-      <c r="B29" s="243" t="s">
+      <c r="B29" s="282" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="244"/>
-      <c r="D29" s="245"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="284"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -12727,11 +12733,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A35" s="77"/>
-      <c r="B35" s="243" t="s">
+      <c r="B35" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="245"/>
+      <c r="C35" s="283"/>
+      <c r="D35" s="284"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -12768,11 +12774,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A37" s="77"/>
-      <c r="B37" s="243" t="s">
+      <c r="B37" s="282" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="244"/>
-      <c r="D37" s="245"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="284"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -13033,11 +13039,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A47" s="77"/>
-      <c r="B47" s="243" t="s">
+      <c r="B47" s="282" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="244"/>
-      <c r="D47" s="245"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="284"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -13158,11 +13164,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A52" s="77"/>
-      <c r="B52" s="243" t="s">
+      <c r="B52" s="282" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="245"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="284"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -13255,11 +13261,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A56" s="77"/>
-      <c r="B56" s="243" t="s">
+      <c r="B56" s="282" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="244"/>
-      <c r="D56" s="245"/>
+      <c r="C56" s="283"/>
+      <c r="D56" s="284"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -13576,11 +13582,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A68" s="77"/>
-      <c r="B68" s="243" t="s">
+      <c r="B68" s="282" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="244"/>
-      <c r="D68" s="245"/>
+      <c r="C68" s="283"/>
+      <c r="D68" s="284"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -13673,11 +13679,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A72" s="77"/>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="282" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245"/>
+      <c r="C72" s="283"/>
+      <c r="D72" s="284"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -13770,11 +13776,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="243" t="s">
+      <c r="B76" s="282" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="244"/>
-      <c r="D76" s="245"/>
+      <c r="C76" s="283"/>
+      <c r="D76" s="284"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -13839,11 +13845,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="243" t="s">
+      <c r="B79" s="282" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="244"/>
-      <c r="D79" s="245"/>
+      <c r="C79" s="283"/>
+      <c r="D79" s="284"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -13992,6 +13998,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -14002,17 +14019,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -14069,13 +14075,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="26.25">
       <c r="A2" s="83"/>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="303" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
       <c r="H2" s="85" t="s">
         <v>334</v>
       </c>
@@ -14086,15 +14092,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="23.25">
       <c r="A3" s="83"/>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="304" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="253"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="254" t="s">
+      <c r="F3" s="305" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="254"/>
+      <c r="G3" s="305"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -14119,10 +14125,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="287" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="255"/>
+      <c r="C6" s="287"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -14291,11 +14297,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="287" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -14471,11 +14477,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="287" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="287"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -14521,10 +14527,10 @@
       <c r="F26" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="256" t="s">
+      <c r="G26" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="257"/>
+      <c r="H26" s="307"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -14549,8 +14555,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="250"/>
-      <c r="H27" s="251"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="299"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -14575,8 +14581,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="250"/>
-      <c r="H28" s="251"/>
+      <c r="G28" s="298"/>
+      <c r="H28" s="299"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -14601,8 +14607,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="250"/>
-      <c r="H29" s="251"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="299"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -14627,8 +14633,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="250"/>
-      <c r="H30" s="251"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="299"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -14649,8 +14655,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="250"/>
-      <c r="H31" s="251"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="299"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -14688,10 +14694,10 @@
       <c r="E34" s="160" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="258" t="s">
+      <c r="F34" s="292" t="s">
         <v>346</v>
       </c>
-      <c r="G34" s="259"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1">
       <c r="A35" s="121"/>
@@ -14707,8 +14713,8 @@
       <c r="E35" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="261"/>
-      <c r="G35" s="262"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="302"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -14731,8 +14737,8 @@
       <c r="E36" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F36" s="250"/>
-      <c r="G36" s="251"/>
+      <c r="F36" s="298"/>
+      <c r="G36" s="299"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -14750,8 +14756,8 @@
       <c r="E37" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F37" s="250"/>
-      <c r="G37" s="251"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="299"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -14764,10 +14770,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="255" t="s">
+      <c r="B39" s="287" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="255"/>
+      <c r="C39" s="287"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -14791,15 +14797,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="260" t="s">
+      <c r="C41" s="300" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="260"/>
-      <c r="E41" s="260" t="s">
+      <c r="D41" s="300"/>
+      <c r="E41" s="300" t="s">
         <v>401</v>
       </c>
-      <c r="F41" s="260"/>
-      <c r="G41" s="260"/>
+      <c r="F41" s="300"/>
+      <c r="G41" s="300"/>
       <c r="H41" s="99" t="s">
         <v>402</v>
       </c>
@@ -14811,15 +14817,15 @@
       <c r="B42" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C42" s="263" t="s">
+      <c r="C42" s="297" t="s">
         <v>404</v>
       </c>
-      <c r="D42" s="263"/>
-      <c r="E42" s="263" t="s">
+      <c r="D42" s="297"/>
+      <c r="E42" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="F42" s="263"/>
-      <c r="G42" s="263"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="297"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -14829,15 +14835,15 @@
       <c r="B43" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="263" t="s">
+      <c r="C43" s="297" t="s">
         <v>404</v>
       </c>
-      <c r="D43" s="263"/>
-      <c r="E43" s="263" t="s">
+      <c r="D43" s="297"/>
+      <c r="E43" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="F43" s="263"/>
-      <c r="G43" s="263"/>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -14847,15 +14853,15 @@
       <c r="B44" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="263" t="s">
+      <c r="C44" s="297" t="s">
         <v>404</v>
       </c>
-      <c r="D44" s="263"/>
-      <c r="E44" s="263" t="s">
+      <c r="D44" s="297"/>
+      <c r="E44" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="263"/>
-      <c r="G44" s="263"/>
+      <c r="F44" s="297"/>
+      <c r="G44" s="297"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -14867,10 +14873,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="255" t="s">
+      <c r="B46" s="287" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="255"/>
+      <c r="C46" s="287"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -14888,25 +14894,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="266" t="s">
+      <c r="A48" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="268" t="s">
+      <c r="B48" s="290" t="s">
         <v>408</v>
       </c>
-      <c r="C48" s="258" t="s">
+      <c r="C48" s="292" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="270"/>
-      <c r="E48" s="270"/>
-      <c r="F48" s="259"/>
-      <c r="G48" s="271" t="s">
+      <c r="D48" s="293"/>
+      <c r="E48" s="293"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="295" t="s">
         <v>376</v>
       </c>
-      <c r="H48" s="271" t="s">
+      <c r="H48" s="295" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="264" t="s">
+      <c r="I48" s="285" t="s">
         <v>410</v>
       </c>
       <c r="J48" s="112"/>
@@ -14914,8 +14920,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="267"/>
-      <c r="B49" s="269"/>
+      <c r="A49" s="289"/>
+      <c r="B49" s="291"/>
       <c r="C49" s="114" t="s">
         <v>385</v>
       </c>
@@ -14928,13 +14934,13 @@
       <c r="F49" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="272"/>
-      <c r="H49" s="272"/>
-      <c r="I49" s="265"/>
+      <c r="G49" s="296"/>
+      <c r="H49" s="296"/>
+      <c r="I49" s="286"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="267"/>
-      <c r="B50" s="269"/>
+      <c r="A50" s="289"/>
+      <c r="B50" s="291"/>
       <c r="C50" s="128" t="s">
         <v>411</v>
       </c>
@@ -15046,26 +15052,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -15078,6 +15064,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -15124,12 +15130,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -15294,6 +15294,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
@@ -15303,15 +15309,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15328,4 +15325,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>